--- a/Original/CN/Game/Quest.xlsx
+++ b/Original/CN/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Original/CN/Game/Quest.xlsx
+++ b/Original/CN/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="747">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t xml:space="preserve">次回へ続く。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation with Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇との対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you seen Kettle?|You received a bracelet from Demitas to break the barrier around the Exile's Village. Let's head to the village located east of Mysilia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケトルを見なかったか？|デミタスから追放者の村の結界を解く腕輪を受け取った。ミシリアの東に位置する追放者の村を訪ねてみよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -1237,7 +1261,7 @@
     <t xml:space="preserve">supply</t>
   </si>
   <si>
-    <t xml:space="preserve">My hobby collections
+    <t xml:space="preserve">My hobby collection
 Urgent request
 Gift for a lover
 Gift for myself
@@ -1807,6 +1831,9 @@
     <t xml:space="preserve">Beta 22.86</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.136</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
@@ -1958,6 +1985,9 @@
   </si>
   <si>
     <t xml:space="preserve">向着黑暗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与黑暗对话</t>
   </si>
   <si>
     <t xml:space="preserve">魔法书作家</t>
@@ -2314,6 +2344,12 @@
   </si>
   <si>
     <t xml:space="preserve">待续。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你有见到凯特尔吗？|从迪米塔斯那里拿到了可以解除结界的手环。去拜访米西利亚东方的流放者之村吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|到达了流放者的村子。和流放者的长老比切林谈谈吧（待续）</t>
   </si>
   <si>
     <t xml:space="preserve">汝是否略懂些魔法？</t>
@@ -2625,10 +2661,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2637,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2655,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2667,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2685,12 +2721,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2708,10 +2744,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2720,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2738,10 +2774,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2750,7 +2786,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2768,12 +2804,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2791,10 +2827,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2803,7 +2839,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2814,7 +2850,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
@@ -2828,10 +2864,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -2840,7 +2876,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -2865,10 +2901,10 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -2877,7 +2913,7 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="G11" t="s">
         <v>58</v>
@@ -2895,10 +2931,10 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2907,7 +2943,7 @@
         <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -2925,10 +2961,10 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D13" t="s">
         <v>66</v>
@@ -2937,7 +2973,7 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="G13" t="s">
         <v>68</v>
@@ -2955,10 +2991,10 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -2967,7 +3003,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -2983,12 +3019,12 @@
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
@@ -3004,7 +3040,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -3020,10 +3056,10 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
@@ -3032,7 +3068,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -3050,7 +3086,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3066,10 +3102,10 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -3078,7 +3114,7 @@
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3096,12 +3132,12 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
@@ -3119,12 +3155,12 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -3142,7 +3178,7 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3158,10 +3194,10 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D23" t="s">
         <v>96</v>
@@ -3170,7 +3206,7 @@
         <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -3188,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3204,10 +3240,10 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C25" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -3216,7 +3252,7 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G25" t="s">
         <v>63</v>
@@ -3234,10 +3270,10 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C26" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -3246,7 +3282,7 @@
         <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -3264,10 +3300,10 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C27" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3276,7 +3312,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="G27" t="s">
         <v>111</v>
@@ -3294,12 +3330,12 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="G28" t="s">
         <v>114</v>
@@ -3317,7 +3353,7 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -3333,10 +3369,10 @@
         <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D30" t="s">
         <v>118</v>
@@ -3345,7 +3381,7 @@
         <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="G30" t="s">
         <v>120</v>
@@ -3363,12 +3399,12 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="G31" t="s">
         <v>123</v>
@@ -3386,12 +3422,12 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="G32" t="s">
         <v>126</v>
@@ -3409,7 +3445,7 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -3425,10 +3461,10 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C34" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D34" t="s">
         <v>130</v>
@@ -3437,7 +3473,7 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="G34" t="s">
         <v>132</v>
@@ -3455,12 +3491,12 @@
         <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="G35" t="s">
         <v>135</v>
@@ -3478,7 +3514,7 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3494,10 +3530,10 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
         <v>139</v>
@@ -3506,7 +3542,7 @@
         <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="G37" t="s">
         <v>141</v>
@@ -3524,7 +3560,7 @@
         <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -3540,10 +3576,10 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -3552,7 +3588,7 @@
         <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="G39" t="s">
         <v>147</v>
@@ -3570,12 +3606,12 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="G40" t="s">
         <v>150</v>
@@ -3593,12 +3629,12 @@
         <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="G41" t="s">
         <v>153</v>
@@ -3616,12 +3652,12 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="G42" t="s">
         <v>156</v>
@@ -3639,12 +3675,12 @@
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="G43" t="s">
         <v>156</v>
@@ -3662,12 +3698,12 @@
         <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="G44" t="s">
         <v>160</v>
@@ -3685,7 +3721,7 @@
         <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -3701,10 +3737,10 @@
         <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C46" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D46" t="s">
         <v>164</v>
@@ -3713,7 +3749,7 @@
         <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="G46" t="s">
         <v>166</v>
@@ -3731,10 +3767,10 @@
         <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C47" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D47" t="s">
         <v>169</v>
@@ -3743,7 +3779,7 @@
         <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3761,7 +3797,7 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3777,10 +3813,10 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C49" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D49" t="s">
         <v>175</v>
@@ -3789,7 +3825,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3807,7 +3843,7 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -3823,10 +3859,10 @@
         <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C51" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D51" t="s">
         <v>181</v>
@@ -3835,7 +3871,7 @@
         <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="G51" t="s">
         <v>183</v>
@@ -3853,10 +3889,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C52" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D52" t="s">
         <v>186</v>
@@ -3865,7 +3901,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3883,10 +3919,10 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C53" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D53" t="s">
         <v>191</v>
@@ -3895,7 +3931,7 @@
         <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="G53" t="s">
         <v>193</v>
@@ -3913,10 +3949,10 @@
         <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C54" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
         <v>196</v>
@@ -3925,7 +3961,7 @@
         <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
@@ -3943,10 +3979,10 @@
         <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D55" t="s">
         <v>201</v>
@@ -3955,7 +3991,7 @@
         <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="G55" t="s">
         <v>203</v>
@@ -3973,10 +4009,10 @@
         <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C56" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D56" t="s">
         <v>206</v>
@@ -3985,7 +4021,7 @@
         <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="G56" t="s">
         <v>208</v>
@@ -4003,10 +4039,10 @@
         <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C57" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D57" t="s">
         <v>211</v>
@@ -4015,7 +4051,7 @@
         <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G57" t="s">
         <v>213</v>
@@ -4033,10 +4069,10 @@
         <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C58" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D58" t="s">
         <v>216</v>
@@ -4045,7 +4081,7 @@
         <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G58" t="s">
         <v>218</v>
@@ -4063,12 +4099,12 @@
         <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="G59" t="s">
         <v>221</v>
@@ -4086,12 +4122,12 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -4109,12 +4145,12 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="G61" t="s">
         <v>227</v>
@@ -4132,12 +4168,12 @@
         <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="G62" t="s">
         <v>230</v>
@@ -4155,12 +4191,12 @@
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="G63" t="s">
         <v>233</v>
@@ -4178,12 +4214,12 @@
         <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="G64" t="s">
         <v>236</v>
@@ -4201,12 +4237,12 @@
         <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="G65" t="s">
         <v>239</v>
@@ -4224,12 +4260,12 @@
         <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="G66" t="s">
         <v>242</v>
@@ -4247,12 +4283,12 @@
         <v>244</v>
       </c>
       <c r="B67" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="G67" t="s">
         <v>245</v>
@@ -4270,7 +4306,7 @@
         <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -4288,7 +4324,7 @@
         <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -4306,10 +4342,10 @@
         <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C70" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D70" t="s">
         <v>251</v>
@@ -4318,7 +4354,7 @@
         <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="G70" t="s">
         <v>253</v>
@@ -4336,10 +4372,10 @@
         <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C71" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D71" t="s">
         <v>256</v>
@@ -4348,7 +4384,7 @@
         <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="G71" t="s">
         <v>258</v>
@@ -4366,10 +4402,10 @@
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C72" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D72" t="s">
         <v>261</v>
@@ -4378,7 +4414,7 @@
         <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="G72" t="s">
         <v>263</v>
@@ -4396,10 +4432,10 @@
         <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D73" t="s">
         <v>266</v>
@@ -4408,7 +4444,7 @@
         <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="G73" t="s">
         <v>268</v>
@@ -4426,10 +4462,10 @@
         <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C74" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="D74" t="s">
         <v>271</v>
@@ -4438,7 +4474,7 @@
         <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="G74" t="s">
         <v>273</v>
@@ -4456,7 +4492,7 @@
         <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -4477,10 +4513,10 @@
         <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D76" t="s">
         <v>278</v>
@@ -4489,7 +4525,7 @@
         <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G76" t="s">
         <v>280</v>
@@ -4507,10 +4543,10 @@
         <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D77" t="s">
         <v>283</v>
@@ -4519,7 +4555,7 @@
         <v>284</v>
       </c>
       <c r="F77" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="G77" t="s">
         <v>285</v>
@@ -4537,10 +4573,10 @@
         <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C78" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D78" t="s">
         <v>288</v>
@@ -4549,7 +4585,7 @@
         <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="G78" t="s">
         <v>290</v>
@@ -4567,10 +4603,10 @@
         <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C79" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D79" t="s">
         <v>293</v>
@@ -4579,7 +4615,7 @@
         <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G79" t="s">
         <v>213</v>
@@ -4597,10 +4633,10 @@
         <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C80" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="D80" t="s">
         <v>296</v>
@@ -4609,7 +4645,7 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="G80" t="s">
         <v>298</v>
@@ -4627,10 +4663,10 @@
         <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C81" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D81" t="s">
         <v>301</v>
@@ -4639,7 +4675,7 @@
         <v>302</v>
       </c>
       <c r="F81" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="G81" t="s">
         <v>303</v>
@@ -4657,12 +4693,12 @@
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="G82" t="s">
         <v>306</v>
@@ -4680,10 +4716,10 @@
         <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="C83" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="D83" t="s">
         <v>309</v>
@@ -4692,7 +4728,7 @@
         <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -4710,25 +4746,18 @@
         <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>528</v>
-      </c>
-      <c r="C84" t="s">
-        <v>590</v>
-      </c>
-      <c r="D84" t="s">
+        <v>546</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>704</v>
+      </c>
+      <c r="G84" t="s">
         <v>314</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>315</v>
-      </c>
-      <c r="F84" t="s">
-        <v>683</v>
-      </c>
-      <c r="G84" t="s">
-        <v>258</v>
-      </c>
-      <c r="H84" t="s">
-        <v>259</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4740,25 +4769,25 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F85" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -4767,26 +4796,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C86" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E86" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
-        <v>694</v>
-      </c>
-      <c r="G86"/>
+        <v>693</v>
+      </c>
+      <c r="G86" t="s">
+        <v>258</v>
+      </c>
       <c r="H86" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4795,13 +4826,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D87" t="s">
         <v>322</v>
@@ -4810,7 +4841,7 @@
         <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="G87" t="s">
         <v>258</v>
@@ -4825,28 +4856,26 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C88" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
-      </c>
-      <c r="G88" t="s">
-        <v>327</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="G88"/>
       <c r="H88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4855,28 +4884,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C89" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>327</v>
+        <v>693</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4885,28 +4914,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C90" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4915,28 +4944,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C91" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D91" t="s">
+        <v>337</v>
+      </c>
+      <c r="E91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91" t="s">
         <v>335</v>
       </c>
-      <c r="E91" t="s">
-        <v>336</v>
-      </c>
-      <c r="F91" t="s">
-        <v>327</v>
-      </c>
       <c r="G91" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -4945,28 +4974,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C92" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F92" t="s">
-        <v>695</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H92" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -4978,18 +5007,25 @@
         <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>521</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>548</v>
+      </c>
+      <c r="C93" t="s">
+        <v>606</v>
+      </c>
+      <c r="D93" t="s">
+        <v>343</v>
+      </c>
+      <c r="E93" t="s">
+        <v>344</v>
+      </c>
       <c r="F93" t="s">
-        <v>696</v>
+        <v>335</v>
       </c>
       <c r="G93" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H93" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5001,10 +5037,10 @@
         <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C94" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D94" t="s">
         <v>346</v>
@@ -5013,7 +5049,7 @@
         <v>347</v>
       </c>
       <c r="F94" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="G94" t="s">
         <v>348</v>
@@ -5031,25 +5067,18 @@
         <v>350</v>
       </c>
       <c r="B95" t="s">
-        <v>521</v>
-      </c>
-      <c r="C95" t="s">
-        <v>599</v>
-      </c>
-      <c r="D95" t="s">
+        <v>529</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>708</v>
+      </c>
+      <c r="G95" t="s">
         <v>351</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>352</v>
-      </c>
-      <c r="F95" t="s">
-        <v>698</v>
-      </c>
-      <c r="G95" t="s">
-        <v>353</v>
-      </c>
-      <c r="H95" t="s">
-        <v>354</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5058,15 +5087,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>353</v>
+      </c>
+      <c r="B96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96" t="s">
+        <v>608</v>
+      </c>
+      <c r="D96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" t="s">
         <v>355</v>
       </c>
-      <c r="B96" t="s">
-        <v>521</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
       <c r="F96" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="G96" t="s">
         <v>356</v>
@@ -5084,10 +5120,10 @@
         <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C97" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="D97" t="s">
         <v>359</v>
@@ -5096,7 +5132,7 @@
         <v>360</v>
       </c>
       <c r="F97" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="G97" t="s">
         <v>361</v>
@@ -5114,25 +5150,18 @@
         <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>521</v>
-      </c>
-      <c r="C98" t="s">
-        <v>601</v>
-      </c>
-      <c r="D98" t="s">
+        <v>529</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>711</v>
+      </c>
+      <c r="G98" t="s">
         <v>364</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
         <v>365</v>
-      </c>
-      <c r="F98" t="s">
-        <v>701</v>
-      </c>
-      <c r="G98" t="s">
-        <v>366</v>
-      </c>
-      <c r="H98" t="s">
-        <v>367</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5141,15 +5170,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B99" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99" t="s">
+        <v>610</v>
+      </c>
+      <c r="D99" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" t="s">
         <v>368</v>
       </c>
-      <c r="B99" t="s">
-        <v>521</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99"/>
       <c r="F99" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="G99" t="s">
         <v>369</v>
@@ -5167,10 +5203,10 @@
         <v>371</v>
       </c>
       <c r="B100" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C100" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="D100" t="s">
         <v>372</v>
@@ -5179,7 +5215,7 @@
         <v>373</v>
       </c>
       <c r="F100" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="G100" t="s">
         <v>374</v>
@@ -5197,25 +5233,18 @@
         <v>376</v>
       </c>
       <c r="B101" t="s">
-        <v>540</v>
-      </c>
-      <c r="C101" t="s">
-        <v>603</v>
-      </c>
-      <c r="D101" t="s">
+        <v>529</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>714</v>
+      </c>
+      <c r="G101" t="s">
         <v>377</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H101" t="s">
         <v>378</v>
-      </c>
-      <c r="F101" t="s">
-        <v>704</v>
-      </c>
-      <c r="G101" t="s">
-        <v>379</v>
-      </c>
-      <c r="H101" t="s">
-        <v>380</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5224,15 +5253,22 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>379</v>
+      </c>
+      <c r="B102" t="s">
+        <v>536</v>
+      </c>
+      <c r="C102" t="s">
+        <v>612</v>
+      </c>
+      <c r="D102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E102" t="s">
         <v>381</v>
       </c>
-      <c r="B102" t="s">
-        <v>541</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
       <c r="F102" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="G102" t="s">
         <v>382</v>
@@ -5250,10 +5286,10 @@
         <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C103" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D103" t="s">
         <v>385</v>
@@ -5262,7 +5298,7 @@
         <v>386</v>
       </c>
       <c r="F103" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="G103" t="s">
         <v>387</v>
@@ -5280,25 +5316,18 @@
         <v>389</v>
       </c>
       <c r="B104" t="s">
-        <v>528</v>
-      </c>
-      <c r="C104" t="s">
-        <v>605</v>
-      </c>
-      <c r="D104" t="s">
+        <v>550</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>717</v>
+      </c>
+      <c r="G104" t="s">
         <v>390</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>391</v>
-      </c>
-      <c r="F104" t="s">
-        <v>707</v>
-      </c>
-      <c r="G104" t="s">
-        <v>392</v>
-      </c>
-      <c r="H104" t="s">
-        <v>393</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5307,28 +5336,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>392</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105" t="s">
+        <v>614</v>
+      </c>
+      <c r="D105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105" t="s">
         <v>394</v>
       </c>
-      <c r="B105" t="s">
-        <v>542</v>
-      </c>
-      <c r="C105" t="s">
-        <v>606</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>718</v>
+      </c>
+      <c r="G105" t="s">
         <v>395</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>396</v>
-      </c>
-      <c r="F105" t="s">
-        <v>708</v>
-      </c>
-      <c r="G105" t="s">
-        <v>397</v>
-      </c>
-      <c r="H105" t="s">
-        <v>398</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5337,28 +5366,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>397</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106" t="s">
+        <v>615</v>
+      </c>
+      <c r="D106" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" t="s">
         <v>399</v>
       </c>
-      <c r="B106" t="s">
-        <v>528</v>
-      </c>
-      <c r="C106" t="s">
-        <v>607</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>719</v>
+      </c>
+      <c r="G106" t="s">
         <v>400</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>401</v>
-      </c>
-      <c r="F106" t="s">
-        <v>709</v>
-      </c>
-      <c r="G106" t="s">
-        <v>402</v>
-      </c>
-      <c r="H106" t="s">
-        <v>403</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5367,28 +5396,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>402</v>
+      </c>
+      <c r="B107" t="s">
+        <v>551</v>
+      </c>
+      <c r="C107" t="s">
+        <v>616</v>
+      </c>
+      <c r="D107" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" t="s">
         <v>404</v>
       </c>
-      <c r="B107" t="s">
-        <v>528</v>
-      </c>
-      <c r="C107" t="s">
-        <v>608</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>720</v>
+      </c>
+      <c r="G107" t="s">
         <v>405</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>406</v>
-      </c>
-      <c r="F107" t="s">
-        <v>710</v>
-      </c>
-      <c r="G107" t="s">
-        <v>407</v>
-      </c>
-      <c r="H107" t="s">
-        <v>408</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5397,28 +5426,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" t="s">
+        <v>617</v>
+      </c>
+      <c r="D108" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" t="s">
         <v>409</v>
       </c>
-      <c r="B108" t="s">
-        <v>543</v>
-      </c>
-      <c r="C108" t="s">
-        <v>609</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>721</v>
+      </c>
+      <c r="G108" t="s">
         <v>410</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>411</v>
-      </c>
-      <c r="F108" t="s">
-        <v>711</v>
-      </c>
-      <c r="G108" t="s">
-        <v>412</v>
-      </c>
-      <c r="H108" t="s">
-        <v>413</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5427,28 +5456,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" t="s">
+        <v>536</v>
+      </c>
+      <c r="C109" t="s">
+        <v>618</v>
+      </c>
+      <c r="D109" t="s">
+        <v>413</v>
+      </c>
+      <c r="E109" t="s">
         <v>414</v>
       </c>
-      <c r="B109" t="s">
-        <v>544</v>
-      </c>
-      <c r="C109" t="s">
-        <v>610</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
+        <v>722</v>
+      </c>
+      <c r="G109" t="s">
         <v>415</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>416</v>
-      </c>
-      <c r="F109" t="s">
-        <v>712</v>
-      </c>
-      <c r="G109" t="s">
-        <v>417</v>
-      </c>
-      <c r="H109" t="s">
-        <v>418</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5457,28 +5486,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" t="s">
+        <v>552</v>
+      </c>
+      <c r="C110" t="s">
+        <v>619</v>
+      </c>
+      <c r="D110" t="s">
+        <v>418</v>
+      </c>
+      <c r="E110" t="s">
         <v>419</v>
       </c>
-      <c r="B110" t="s">
-        <v>528</v>
-      </c>
-      <c r="C110" t="s">
-        <v>611</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
+        <v>723</v>
+      </c>
+      <c r="G110" t="s">
         <v>420</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>421</v>
-      </c>
-      <c r="F110" t="s">
-        <v>713</v>
-      </c>
-      <c r="G110" t="s">
-        <v>422</v>
-      </c>
-      <c r="H110" t="s">
-        <v>423</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5487,28 +5516,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" t="s">
+        <v>553</v>
+      </c>
+      <c r="C111" t="s">
+        <v>620</v>
+      </c>
+      <c r="D111" t="s">
+        <v>423</v>
+      </c>
+      <c r="E111" t="s">
         <v>424</v>
       </c>
-      <c r="B111" t="s">
-        <v>528</v>
-      </c>
-      <c r="C111" t="s">
-        <v>612</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>724</v>
+      </c>
+      <c r="G111" t="s">
         <v>425</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" t="s">
         <v>426</v>
-      </c>
-      <c r="F111" t="s">
-        <v>714</v>
-      </c>
-      <c r="G111" t="s">
-        <v>427</v>
-      </c>
-      <c r="H111" t="s">
-        <v>428</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5517,28 +5546,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" t="s">
+        <v>428</v>
+      </c>
+      <c r="E112" t="s">
         <v>429</v>
       </c>
-      <c r="B112" t="s">
-        <v>528</v>
-      </c>
-      <c r="C112" t="s">
-        <v>613</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
+        <v>725</v>
+      </c>
+      <c r="G112" t="s">
         <v>430</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" t="s">
         <v>431</v>
-      </c>
-      <c r="F112" t="s">
-        <v>715</v>
-      </c>
-      <c r="G112" t="s">
-        <v>432</v>
-      </c>
-      <c r="H112" t="s">
-        <v>433</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5547,28 +5576,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" t="s">
+        <v>536</v>
+      </c>
+      <c r="C113" t="s">
+        <v>622</v>
+      </c>
+      <c r="D113" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
         <v>434</v>
       </c>
-      <c r="B113" t="s">
-        <v>528</v>
-      </c>
-      <c r="C113" t="s">
-        <v>614</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>726</v>
+      </c>
+      <c r="G113" t="s">
         <v>435</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>436</v>
-      </c>
-      <c r="F113" t="s">
-        <v>716</v>
-      </c>
-      <c r="G113" t="s">
-        <v>437</v>
-      </c>
-      <c r="H113" t="s">
-        <v>438</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5577,28 +5606,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" t="s">
+        <v>536</v>
+      </c>
+      <c r="C114" t="s">
+        <v>623</v>
+      </c>
+      <c r="D114" t="s">
+        <v>438</v>
+      </c>
+      <c r="E114" t="s">
         <v>439</v>
       </c>
-      <c r="B114" t="s">
-        <v>531</v>
-      </c>
-      <c r="C114" t="s">
-        <v>615</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>727</v>
+      </c>
+      <c r="G114" t="s">
         <v>440</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>441</v>
-      </c>
-      <c r="F114" t="s">
-        <v>717</v>
-      </c>
-      <c r="G114" t="s">
-        <v>442</v>
-      </c>
-      <c r="H114" t="s">
-        <v>443</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5607,28 +5636,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" t="s">
+        <v>536</v>
+      </c>
+      <c r="C115" t="s">
+        <v>624</v>
+      </c>
+      <c r="D115" t="s">
+        <v>443</v>
+      </c>
+      <c r="E115" t="s">
         <v>444</v>
       </c>
-      <c r="B115" t="s">
-        <v>528</v>
-      </c>
-      <c r="C115" t="s">
-        <v>616</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>728</v>
+      </c>
+      <c r="G115" t="s">
         <v>445</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>446</v>
-      </c>
-      <c r="F115" t="s">
-        <v>718</v>
-      </c>
-      <c r="G115" t="s">
-        <v>447</v>
-      </c>
-      <c r="H115" t="s">
-        <v>448</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5637,28 +5666,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>447</v>
+      </c>
+      <c r="B116" t="s">
+        <v>539</v>
+      </c>
+      <c r="C116" t="s">
+        <v>625</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" t="s">
         <v>449</v>
       </c>
-      <c r="B116" t="s">
-        <v>528</v>
-      </c>
-      <c r="C116" t="s">
-        <v>617</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
+        <v>729</v>
+      </c>
+      <c r="G116" t="s">
         <v>450</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>451</v>
-      </c>
-      <c r="F116" t="s">
-        <v>719</v>
-      </c>
-      <c r="G116" t="s">
-        <v>452</v>
-      </c>
-      <c r="H116" t="s">
-        <v>453</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5667,28 +5696,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>452</v>
+      </c>
+      <c r="B117" t="s">
+        <v>536</v>
+      </c>
+      <c r="C117" t="s">
+        <v>626</v>
+      </c>
+      <c r="D117" t="s">
+        <v>453</v>
+      </c>
+      <c r="E117" t="s">
         <v>454</v>
       </c>
-      <c r="B117" t="s">
-        <v>528</v>
-      </c>
-      <c r="C117" t="s">
-        <v>618</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>730</v>
+      </c>
+      <c r="G117" t="s">
         <v>455</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>456</v>
-      </c>
-      <c r="F117" t="s">
-        <v>720</v>
-      </c>
-      <c r="G117" t="s">
-        <v>457</v>
-      </c>
-      <c r="H117" t="s">
-        <v>458</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5697,28 +5726,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B118" t="s">
+        <v>536</v>
+      </c>
+      <c r="C118" t="s">
+        <v>627</v>
+      </c>
+      <c r="D118" t="s">
+        <v>458</v>
+      </c>
+      <c r="E118" t="s">
         <v>459</v>
       </c>
-      <c r="B118" t="s">
-        <v>528</v>
-      </c>
-      <c r="C118" t="s">
-        <v>619</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>731</v>
+      </c>
+      <c r="G118" t="s">
         <v>460</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>461</v>
-      </c>
-      <c r="F118" t="s">
-        <v>721</v>
-      </c>
-      <c r="G118" t="s">
-        <v>462</v>
-      </c>
-      <c r="H118" t="s">
-        <v>463</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5727,28 +5756,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" t="s">
+        <v>536</v>
+      </c>
+      <c r="C119" t="s">
+        <v>628</v>
+      </c>
+      <c r="D119" t="s">
+        <v>463</v>
+      </c>
+      <c r="E119" t="s">
         <v>464</v>
       </c>
-      <c r="B119" t="s">
-        <v>528</v>
-      </c>
-      <c r="C119" t="s">
-        <v>620</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>732</v>
+      </c>
+      <c r="G119" t="s">
         <v>465</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>466</v>
-      </c>
-      <c r="F119" t="s">
-        <v>722</v>
-      </c>
-      <c r="G119" t="s">
-        <v>467</v>
-      </c>
-      <c r="H119" t="s">
-        <v>468</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5757,28 +5786,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>467</v>
+      </c>
+      <c r="B120" t="s">
+        <v>536</v>
+      </c>
+      <c r="C120" t="s">
+        <v>629</v>
+      </c>
+      <c r="D120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" t="s">
         <v>469</v>
       </c>
-      <c r="B120" t="s">
-        <v>528</v>
-      </c>
-      <c r="C120" t="s">
-        <v>621</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>733</v>
+      </c>
+      <c r="G120" t="s">
         <v>470</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>471</v>
-      </c>
-      <c r="F120" t="s">
-        <v>723</v>
-      </c>
-      <c r="G120" t="s">
-        <v>472</v>
-      </c>
-      <c r="H120" t="s">
-        <v>473</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5787,28 +5816,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" t="s">
+        <v>630</v>
+      </c>
+      <c r="D121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" t="s">
         <v>474</v>
       </c>
-      <c r="B121" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" t="s">
-        <v>622</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>734</v>
+      </c>
+      <c r="G121" t="s">
         <v>475</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>476</v>
-      </c>
-      <c r="F121" t="s">
-        <v>724</v>
-      </c>
-      <c r="G121" t="s">
-        <v>477</v>
-      </c>
-      <c r="H121" t="s">
-        <v>478</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5817,28 +5846,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122" t="s">
+        <v>536</v>
+      </c>
+      <c r="C122" t="s">
+        <v>631</v>
+      </c>
+      <c r="D122" t="s">
+        <v>478</v>
+      </c>
+      <c r="E122" t="s">
         <v>479</v>
       </c>
-      <c r="B122" t="s">
-        <v>528</v>
-      </c>
-      <c r="C122" t="s">
-        <v>622</v>
-      </c>
-      <c r="D122" t="s">
-        <v>475</v>
-      </c>
-      <c r="E122" t="s">
-        <v>476</v>
-      </c>
       <c r="F122" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="G122" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5847,28 +5876,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C123" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E123" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F123" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="G123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H123" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5877,28 +5906,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B124" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C124" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D124" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E124" t="s">
+        <v>484</v>
+      </c>
+      <c r="F124" t="s">
+        <v>737</v>
+      </c>
+      <c r="G124" t="s">
+        <v>485</v>
+      </c>
+      <c r="H124" t="s">
         <v>488</v>
-      </c>
-      <c r="F124" t="s">
-        <v>727</v>
-      </c>
-      <c r="G124" t="s">
-        <v>489</v>
-      </c>
-      <c r="H124" t="s">
-        <v>490</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5907,28 +5936,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" t="s">
+        <v>536</v>
+      </c>
+      <c r="C125" t="s">
+        <v>633</v>
+      </c>
+      <c r="D125" t="s">
+        <v>490</v>
+      </c>
+      <c r="E125" t="s">
         <v>491</v>
       </c>
-      <c r="B125" t="s">
-        <v>528</v>
-      </c>
-      <c r="C125" t="s">
-        <v>625</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
+        <v>738</v>
+      </c>
+      <c r="G125" t="s">
         <v>492</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>493</v>
-      </c>
-      <c r="F125" t="s">
-        <v>728</v>
-      </c>
-      <c r="G125" t="s">
-        <v>494</v>
-      </c>
-      <c r="H125" t="s">
-        <v>495</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5937,28 +5966,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>494</v>
+      </c>
+      <c r="B126" t="s">
+        <v>536</v>
+      </c>
+      <c r="C126" t="s">
+        <v>634</v>
+      </c>
+      <c r="D126" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" t="s">
         <v>496</v>
       </c>
-      <c r="B126" t="s">
-        <v>528</v>
-      </c>
-      <c r="C126" t="s">
-        <v>626</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>739</v>
+      </c>
+      <c r="G126" t="s">
         <v>497</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>498</v>
-      </c>
-      <c r="F126" t="s">
-        <v>729</v>
-      </c>
-      <c r="G126" t="s">
-        <v>499</v>
-      </c>
-      <c r="H126" t="s">
-        <v>500</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -5967,28 +5996,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" t="s">
+        <v>536</v>
+      </c>
+      <c r="C127" t="s">
+        <v>635</v>
+      </c>
+      <c r="D127" t="s">
+        <v>500</v>
+      </c>
+      <c r="E127" t="s">
         <v>501</v>
       </c>
-      <c r="B127" t="s">
-        <v>528</v>
-      </c>
-      <c r="C127" t="s">
-        <v>627</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>740</v>
+      </c>
+      <c r="G127" t="s">
         <v>502</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>503</v>
-      </c>
-      <c r="F127" t="s">
-        <v>730</v>
-      </c>
-      <c r="G127" t="s">
-        <v>504</v>
-      </c>
-      <c r="H127" t="s">
-        <v>505</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -5997,28 +6026,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>504</v>
+      </c>
+      <c r="B128" t="s">
+        <v>536</v>
+      </c>
+      <c r="C128" t="s">
+        <v>636</v>
+      </c>
+      <c r="D128" t="s">
+        <v>505</v>
+      </c>
+      <c r="E128" t="s">
         <v>506</v>
       </c>
-      <c r="B128" t="s">
-        <v>545</v>
-      </c>
-      <c r="C128" t="s">
-        <v>628</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>741</v>
+      </c>
+      <c r="G128" t="s">
         <v>507</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>508</v>
-      </c>
-      <c r="F128" t="s">
-        <v>731</v>
-      </c>
-      <c r="G128" t="s">
-        <v>509</v>
-      </c>
-      <c r="H128" t="s">
-        <v>510</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6027,28 +6056,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>509</v>
+      </c>
+      <c r="B129" t="s">
+        <v>536</v>
+      </c>
+      <c r="C129" t="s">
+        <v>637</v>
+      </c>
+      <c r="D129" t="s">
+        <v>510</v>
+      </c>
+      <c r="E129" t="s">
         <v>511</v>
       </c>
-      <c r="B129" t="s">
-        <v>546</v>
-      </c>
-      <c r="C129" t="s">
-        <v>629</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
+        <v>742</v>
+      </c>
+      <c r="G129" t="s">
         <v>512</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>513</v>
-      </c>
-      <c r="F129" t="s">
-        <v>732</v>
-      </c>
-      <c r="G129" t="s">
-        <v>514</v>
-      </c>
-      <c r="H129" t="s">
-        <v>515</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6057,33 +6086,93 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>514</v>
+      </c>
+      <c r="B130" t="s">
+        <v>554</v>
+      </c>
+      <c r="C130" t="s">
+        <v>638</v>
+      </c>
+      <c r="D130" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" t="s">
         <v>516</v>
       </c>
-      <c r="B130" t="s">
-        <v>547</v>
-      </c>
-      <c r="C130" t="s">
-        <v>630</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
+        <v>743</v>
+      </c>
+      <c r="G130" t="s">
         <v>517</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>518</v>
-      </c>
-      <c r="F130" t="s">
-        <v>733</v>
-      </c>
-      <c r="G130" t="s">
-        <v>519</v>
-      </c>
-      <c r="H130" t="s">
-        <v>520</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="M130"/>
       <c r="N130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" t="s">
+        <v>555</v>
+      </c>
+      <c r="C131" t="s">
+        <v>639</v>
+      </c>
+      <c r="D131" t="s">
+        <v>520</v>
+      </c>
+      <c r="E131" t="s">
+        <v>521</v>
+      </c>
+      <c r="F131" t="s">
+        <v>744</v>
+      </c>
+      <c r="G131" t="s">
+        <v>522</v>
+      </c>
+      <c r="H131" t="s">
+        <v>523</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>524</v>
+      </c>
+      <c r="B132" t="s">
+        <v>556</v>
+      </c>
+      <c r="C132" t="s">
+        <v>640</v>
+      </c>
+      <c r="D132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>526</v>
+      </c>
+      <c r="F132" t="s">
+        <v>745</v>
+      </c>
+      <c r="G132" t="s">
+        <v>527</v>
+      </c>
+      <c r="H132" t="s">
+        <v>528</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="M132"/>
+      <c r="N132"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Original/CN/Game/Quest.xlsx
+++ b/Original/CN/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="780">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -114,6 +114,41 @@
   </si>
   <si>
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeking the Legendary Bag!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伝説の鞄の謎を追え！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompany Nanasu and explore the “Forest of the Lost Way,” located northwest of Specwing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖精のナナスを連れ、スペクウィングの北西にある「帰らずの森」を探索しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+At the deepest part of the forest, Nanasu’s rivals, Raina and Poina, await you. Eliminate the insolent fairies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰らずの森の最奥でナナスのライバルのライナとポイナが待ち受けていた。生意気な妖精たちを駆除しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You have found the mysterious bag that Nanasu desired. Speak to her and hand it over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたはナナスが欲しがっていた不思議な鞄を見つけた。ナナスに話しかけ、鞄を渡そう。</t>
   </si>
   <si>
     <t xml:space="preserve">melilith</t>
@@ -962,10 +997,46 @@
     <t xml:space="preserve">negotiation_darkness1</t>
   </si>
   <si>
-    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
+    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Bicerin, the elder of the exiles, entrusted you with the mission to return Duponne from the Sunken Temple of Lurie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ルーリエ海底神殿からデュポンヌを連れ帰るよう、追放者の長ビチェリンに依頼された。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You found Duponne, now grown into a dragon, deep within the Sunken Temple of Lurie. To bring her back seems beyond reach now, unless there is another way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ルーリエ海底神殿の最奥でドラゴンへと成長したデュポンヌを見つけた。このままでは連れ帰ることは難しそうだが、何か手があるだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|The mission given by Bicerin has been fulfilled. Time to return to the Village of Atonement and inform him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ビチェリンの依頼を達成した。贖罪の村に戻り、ビチェリンに報告しなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Let's wait for Kettle to come back. (Continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ケトルの帰りを待とう。（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -1786,6 +1857,9 @@
     <t xml:space="preserve">EA 23.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.184</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 12.1</t>
   </si>
   <si>
@@ -1834,6 +1908,9 @@
     <t xml:space="preserve">EA 23.136</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.198</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
@@ -1868,6 +1945,9 @@
   </si>
   <si>
     <t xml:space="preserve">米西利亚的复兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追寻传说之包的秘密！</t>
   </si>
   <si>
     <t xml:space="preserve">闹鬼宅邸</t>
@@ -2171,6 +2251,15 @@
     <t xml:space="preserve">米西利亚为了自身的存续和复兴正迫切需要更多盟友。新天地如果能继续发展下去，也许会得到米西利亚方的联系。</t>
   </si>
   <si>
+    <t xml:space="preserve">带上娜娜苏，探索斯普睿西北边的不归之森吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">娜娜苏的对头莱伊娜和珀伊娜在不归之森的深处等待着。赶走狂妄的妖精们吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你找到了娜娜苏想要的神奇的包。和娜娜苏对话，把包交给她吧。</t>
+  </si>
+  <si>
     <t xml:space="preserve">被住在古旧洋房里的神秘少女梅丽利丝拜托参加她的「寻宝」游戏。需要潜入洋房的地下深处，得到隐藏的宝物。但是，梅丽利丝对我忠告到「能带回去的宝物只有一个」。</t>
   </si>
   <si>
@@ -2349,7 +2438,19 @@
     <t xml:space="preserve">你有见到凯特尔吗？|从迪米塔斯那里拿到了可以解除结界的手环。去拜访米西利亚东方的流放者之村吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">|到达了流放者的村子。和流放者的长老比切林谈谈吧（待续）</t>
+    <t xml:space="preserve">|到达了流放者的村子。和流放者的长老比切林谈谈吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|流放者长老比切林委托你将露里耶海底神殿的迪伯妮带回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|你找到了露里耶海底神殿最深处成长为龙的迪伯妮。但想不到要怎么把它带回去…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|完成了比切林的委托。需回到赎罪村向比切林报告。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|等待凯特尔归来。（待续）</t>
   </si>
   <si>
     <t xml:space="preserve">汝是否略懂些魔法？</t>
@@ -2661,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2673,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2691,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2703,7 +2804,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2721,12 +2822,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2744,10 +2845,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2756,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2774,10 +2875,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2786,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2804,12 +2905,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2827,99 +2928,71 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" t="s">
-        <v>560</v>
-      </c>
-      <c r="D9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>647</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="s">
-        <v>746</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>674</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>648</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>562</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -2928,86 +3001,102 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="L12" t="s">
+        <v>779</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>678</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>652</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>73</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -3016,17 +3105,26 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" t="s">
+        <v>589</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>679</v>
+      </c>
+      <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>529</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>653</v>
-      </c>
-      <c r="G15"/>
       <c r="H15" t="s">
         <v>75</v>
       </c>
@@ -3040,12 +3138,26 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+        <v>552</v>
+      </c>
+      <c r="C16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>680</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="M16"/>
@@ -3053,28 +3165,26 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>654</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -3083,15 +3193,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18" t="s">
+        <v>682</v>
+      </c>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="M18"/>
@@ -3099,29 +3214,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>655</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3132,18 +3233,25 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>557</v>
+      </c>
+      <c r="C20" t="s">
+        <v>592</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
       <c r="F20" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3152,22 +3260,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>657</v>
-      </c>
-      <c r="G21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" t="s">
-        <v>93</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="M21"/>
@@ -3178,12 +3279,26 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+        <v>552</v>
+      </c>
+      <c r="C22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>684</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="M22"/>
@@ -3191,28 +3306,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
-      </c>
-      <c r="C23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -3221,15 +3329,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="F24" t="s">
+        <v>686</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="M24"/>
@@ -3237,29 +3352,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C25" t="s">
-        <v>569</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>650</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="M25"/>
@@ -3267,28 +3368,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="C26" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3297,29 +3398,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
-      </c>
-      <c r="C27" t="s">
-        <v>571</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" t="s">
-        <v>659</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="M27"/>
@@ -3327,18 +3414,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
       <c r="F28" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
         <v>115</v>
@@ -3353,12 +3447,26 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+        <v>559</v>
+      </c>
+      <c r="C29" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>679</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3366,28 +3474,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3396,21 +3504,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3419,22 +3527,15 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>663</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" t="s">
-        <v>127</v>
-      </c>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="M32"/>
@@ -3445,12 +3546,26 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>529</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="G33"/>
-      <c r="H33"/>
+        <v>560</v>
+      </c>
+      <c r="C33" t="s">
+        <v>598</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>690</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="M33"/>
@@ -3458,28 +3573,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>529</v>
-      </c>
-      <c r="C34" t="s">
-        <v>573</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -3488,21 +3596,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3511,10 +3619,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3527,28 +3635,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="C37" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3557,15 +3665,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+      <c r="F38" t="s">
+        <v>694</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3573,29 +3688,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
-      </c>
-      <c r="C39" t="s">
-        <v>575</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>667</v>
-      </c>
-      <c r="G39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" t="s">
-        <v>148</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="G39"/>
+      <c r="H39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="M39"/>
@@ -3606,18 +3707,25 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>529</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
+        <v>561</v>
+      </c>
+      <c r="C40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
       <c r="F40" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3626,22 +3734,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" t="s">
-        <v>669</v>
-      </c>
-      <c r="G41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" t="s">
-        <v>154</v>
-      </c>
+      <c r="G41"/>
+      <c r="H41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="M41"/>
@@ -3652,18 +3753,25 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>529</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>552</v>
+      </c>
+      <c r="C42" t="s">
+        <v>601</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
       <c r="F42" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -3672,21 +3780,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3695,21 +3803,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3718,15 +3826,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+      <c r="F45" t="s">
+        <v>699</v>
+      </c>
+      <c r="G45" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" t="s">
+        <v>168</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="M45"/>
@@ -3734,28 +3849,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>534</v>
-      </c>
-      <c r="C46" t="s">
-        <v>576</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3764,22 +3872,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" t="s">
-        <v>577</v>
-      </c>
-      <c r="D47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" t="s">
-        <v>170</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="F47" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3797,7 +3898,7 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3813,10 +3914,10 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C49" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="D49" t="s">
         <v>175</v>
@@ -3825,7 +3926,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3843,12 +3944,26 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>534</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+        <v>558</v>
+      </c>
+      <c r="C50" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>702</v>
+      </c>
+      <c r="G50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" t="s">
+        <v>183</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -3856,29 +3971,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>538</v>
-      </c>
-      <c r="C51" t="s">
-        <v>579</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" t="s">
-        <v>675</v>
-      </c>
-      <c r="G51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H51" t="s">
-        <v>184</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="G51"/>
+      <c r="H51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -3889,10 +3990,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="C52" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="D52" t="s">
         <v>186</v>
@@ -3901,7 +4002,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3919,26 +4020,12 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>538</v>
-      </c>
-      <c r="C53" t="s">
-        <v>581</v>
-      </c>
-      <c r="D53" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>677</v>
-      </c>
-      <c r="G53" t="s">
-        <v>193</v>
-      </c>
-      <c r="H53" t="s">
-        <v>194</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="G53"/>
+      <c r="H53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="M53"/>
@@ -3946,28 +4033,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" t="s">
+        <v>605</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" t="s">
+        <v>704</v>
+      </c>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" t="s">
         <v>195</v>
-      </c>
-      <c r="B54" t="s">
-        <v>538</v>
-      </c>
-      <c r="C54" t="s">
-        <v>582</v>
-      </c>
-      <c r="D54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" t="s">
-        <v>678</v>
-      </c>
-      <c r="G54" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" t="s">
-        <v>199</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3976,28 +4063,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>562</v>
+      </c>
+      <c r="C55" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" t="s">
         <v>200</v>
-      </c>
-      <c r="B55" t="s">
-        <v>536</v>
-      </c>
-      <c r="C55" t="s">
-        <v>583</v>
-      </c>
-      <c r="D55" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" t="s">
-        <v>679</v>
-      </c>
-      <c r="G55" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" t="s">
-        <v>204</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -4006,28 +4093,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C56" t="s">
+        <v>607</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" t="s">
+        <v>706</v>
+      </c>
+      <c r="G56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
         <v>205</v>
-      </c>
-      <c r="B56" t="s">
-        <v>539</v>
-      </c>
-      <c r="C56" t="s">
-        <v>584</v>
-      </c>
-      <c r="D56" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" t="s">
-        <v>680</v>
-      </c>
-      <c r="G56" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" t="s">
-        <v>209</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -4036,28 +4123,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>562</v>
+      </c>
+      <c r="C57" t="s">
+        <v>608</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" t="s">
+        <v>707</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
         <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>536</v>
-      </c>
-      <c r="C57" t="s">
-        <v>585</v>
-      </c>
-      <c r="D57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" t="s">
-        <v>681</v>
-      </c>
-      <c r="G57" t="s">
-        <v>213</v>
-      </c>
-      <c r="H57" t="s">
-        <v>214</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -4066,28 +4153,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>560</v>
+      </c>
+      <c r="C58" t="s">
+        <v>609</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" t="s">
+        <v>708</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
         <v>215</v>
-      </c>
-      <c r="B58" t="s">
-        <v>536</v>
-      </c>
-      <c r="C58" t="s">
-        <v>586</v>
-      </c>
-      <c r="D58" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" t="s">
-        <v>217</v>
-      </c>
-      <c r="F58" t="s">
-        <v>682</v>
-      </c>
-      <c r="G58" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" t="s">
-        <v>219</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4096,21 +4183,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" t="s">
+        <v>610</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>709</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
         <v>220</v>
-      </c>
-      <c r="B59" t="s">
-        <v>536</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>683</v>
-      </c>
-      <c r="G59" t="s">
-        <v>221</v>
-      </c>
-      <c r="H59" t="s">
-        <v>222</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4119,15 +4213,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>560</v>
+      </c>
+      <c r="C60" t="s">
+        <v>611</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
         <v>223</v>
       </c>
-      <c r="B60" t="s">
-        <v>536</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
       <c r="F60" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -4145,18 +4246,25 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
+        <v>560</v>
+      </c>
+      <c r="C61" t="s">
+        <v>612</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
       <c r="F61" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -4165,21 +4273,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -4188,21 +4296,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -4211,21 +4319,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4234,21 +4342,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4257,21 +4365,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="G66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -4280,21 +4388,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4303,17 +4411,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
+      <c r="F68" t="s">
+        <v>718</v>
+      </c>
       <c r="G68" t="s">
-        <v>248</v>
-      </c>
-      <c r="H68"/>
+        <v>250</v>
+      </c>
+      <c r="H68" t="s">
+        <v>251</v>
+      </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="M68"/>
@@ -4321,17 +4434,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
+      <c r="F69" t="s">
+        <v>719</v>
+      </c>
       <c r="G69" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69"/>
+        <v>253</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
+      </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="M69"/>
@@ -4339,28 +4457,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>536</v>
-      </c>
-      <c r="C70" t="s">
-        <v>587</v>
-      </c>
-      <c r="D70" t="s">
-        <v>251</v>
-      </c>
-      <c r="E70" t="s">
-        <v>252</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="F70" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4369,29 +4480,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>536</v>
-      </c>
-      <c r="C71" t="s">
-        <v>588</v>
-      </c>
-      <c r="D71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" t="s">
-        <v>693</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
       <c r="G71" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" t="s">
         <v>259</v>
       </c>
+      <c r="H71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="M71"/>
@@ -4402,26 +4501,14 @@
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>543</v>
-      </c>
-      <c r="C72" t="s">
-        <v>589</v>
-      </c>
-      <c r="D72" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72" t="s">
-        <v>262</v>
-      </c>
-      <c r="F72" t="s">
-        <v>694</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
       <c r="G72" t="s">
-        <v>263</v>
-      </c>
-      <c r="H72" t="s">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="M72"/>
@@ -4429,28 +4516,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" t="s">
+        <v>560</v>
+      </c>
+      <c r="C73" t="s">
+        <v>613</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>721</v>
+      </c>
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
         <v>265</v>
-      </c>
-      <c r="B73" t="s">
-        <v>543</v>
-      </c>
-      <c r="C73" t="s">
-        <v>590</v>
-      </c>
-      <c r="D73" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" t="s">
-        <v>267</v>
-      </c>
-      <c r="F73" t="s">
-        <v>695</v>
-      </c>
-      <c r="G73" t="s">
-        <v>268</v>
-      </c>
-      <c r="H73" t="s">
-        <v>269</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -4459,28 +4546,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" t="s">
+        <v>614</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" t="s">
+        <v>722</v>
+      </c>
+      <c r="G74" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" t="s">
         <v>270</v>
-      </c>
-      <c r="B74" t="s">
-        <v>544</v>
-      </c>
-      <c r="C74" t="s">
-        <v>591</v>
-      </c>
-      <c r="D74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F74" t="s">
-        <v>696</v>
-      </c>
-      <c r="G74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" t="s">
-        <v>274</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
@@ -4489,19 +4576,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" t="s">
+        <v>567</v>
+      </c>
+      <c r="C75" t="s">
+        <v>615</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>273</v>
+      </c>
+      <c r="F75" t="s">
+        <v>723</v>
+      </c>
+      <c r="G75" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75" t="s">
         <v>275</v>
-      </c>
-      <c r="B75" t="s">
-        <v>529</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" t="s">
-        <v>276</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4510,28 +4606,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>567</v>
+      </c>
+      <c r="C76" t="s">
+        <v>616</v>
+      </c>
+      <c r="D76" t="s">
         <v>277</v>
       </c>
-      <c r="B76" t="s">
-        <v>545</v>
-      </c>
-      <c r="C76" t="s">
-        <v>592</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>278</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>724</v>
+      </c>
+      <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="F76" t="s">
-        <v>697</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>280</v>
-      </c>
-      <c r="H76" t="s">
-        <v>281</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4540,28 +4636,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" t="s">
+        <v>617</v>
+      </c>
+      <c r="D77" t="s">
         <v>282</v>
       </c>
-      <c r="B77" t="s">
-        <v>545</v>
-      </c>
-      <c r="C77" t="s">
-        <v>593</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>283</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>725</v>
+      </c>
+      <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="F77" t="s">
-        <v>698</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>285</v>
-      </c>
-      <c r="H77" t="s">
-        <v>286</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4570,28 +4666,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" t="s">
+        <v>552</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" t="s">
         <v>287</v>
       </c>
-      <c r="B78" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" t="s">
-        <v>594</v>
-      </c>
-      <c r="D78" t="s">
-        <v>288</v>
-      </c>
-      <c r="E78" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78" t="s">
-        <v>699</v>
-      </c>
-      <c r="G78" t="s">
-        <v>290</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4600,28 +4687,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>569</v>
+      </c>
+      <c r="C79" t="s">
+        <v>618</v>
+      </c>
+      <c r="D79" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" t="s">
+        <v>726</v>
+      </c>
+      <c r="G79" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" t="s">
         <v>292</v>
-      </c>
-      <c r="B79" t="s">
-        <v>545</v>
-      </c>
-      <c r="C79" t="s">
-        <v>595</v>
-      </c>
-      <c r="D79" t="s">
-        <v>293</v>
-      </c>
-      <c r="E79" t="s">
-        <v>294</v>
-      </c>
-      <c r="F79" t="s">
-        <v>681</v>
-      </c>
-      <c r="G79" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" t="s">
-        <v>214</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4630,28 +4717,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C80" t="s">
+        <v>619</v>
+      </c>
+      <c r="D80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" t="s">
         <v>295</v>
       </c>
-      <c r="B80" t="s">
-        <v>545</v>
-      </c>
-      <c r="C80" t="s">
-        <v>596</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>727</v>
+      </c>
+      <c r="G80" t="s">
         <v>296</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>297</v>
-      </c>
-      <c r="F80" t="s">
-        <v>700</v>
-      </c>
-      <c r="G80" t="s">
-        <v>298</v>
-      </c>
-      <c r="H80" t="s">
-        <v>299</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4660,28 +4747,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
+        <v>569</v>
+      </c>
+      <c r="C81" t="s">
+        <v>620</v>
+      </c>
+      <c r="D81" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" t="s">
         <v>300</v>
       </c>
-      <c r="B81" t="s">
-        <v>539</v>
-      </c>
-      <c r="C81" t="s">
-        <v>597</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>728</v>
+      </c>
+      <c r="G81" t="s">
         <v>301</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>302</v>
-      </c>
-      <c r="F81" t="s">
-        <v>701</v>
-      </c>
-      <c r="G81" t="s">
-        <v>303</v>
-      </c>
-      <c r="H81" t="s">
-        <v>304</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4690,21 +4777,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>569</v>
+      </c>
+      <c r="C82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E82" t="s">
         <v>305</v>
       </c>
-      <c r="B82" t="s">
-        <v>539</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82"/>
       <c r="F82" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="G82" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -4713,28 +4807,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>569</v>
+      </c>
+      <c r="C83" t="s">
+        <v>622</v>
+      </c>
+      <c r="D83" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" t="s">
         <v>308</v>
       </c>
-      <c r="B83" t="s">
-        <v>546</v>
-      </c>
-      <c r="C83" t="s">
-        <v>598</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
+        <v>729</v>
+      </c>
+      <c r="G83" t="s">
         <v>309</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>310</v>
-      </c>
-      <c r="F83" t="s">
-        <v>703</v>
-      </c>
-      <c r="G83" t="s">
-        <v>311</v>
-      </c>
-      <c r="H83" t="s">
-        <v>312</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -4743,15 +4837,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" t="s">
+        <v>563</v>
+      </c>
+      <c r="C84" t="s">
+        <v>623</v>
+      </c>
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s">
         <v>313</v>
       </c>
-      <c r="B84" t="s">
-        <v>546</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84"/>
       <c r="F84" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4769,25 +4870,18 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>539</v>
-      </c>
-      <c r="C85" t="s">
-        <v>599</v>
-      </c>
-      <c r="D85" t="s">
+        <v>563</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>731</v>
+      </c>
+      <c r="G85" t="s">
         <v>317</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>318</v>
-      </c>
-      <c r="F85" t="s">
-        <v>705</v>
-      </c>
-      <c r="G85" t="s">
-        <v>319</v>
-      </c>
-      <c r="H85" t="s">
-        <v>320</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -4796,28 +4890,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" t="s">
+        <v>570</v>
+      </c>
+      <c r="C86" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
         <v>321</v>
       </c>
-      <c r="B86" t="s">
-        <v>536</v>
-      </c>
-      <c r="C86" t="s">
-        <v>600</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
+        <v>732</v>
+      </c>
+      <c r="G86" t="s">
         <v>322</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>323</v>
-      </c>
-      <c r="F86" t="s">
-        <v>693</v>
-      </c>
-      <c r="G86" t="s">
-        <v>258</v>
-      </c>
-      <c r="H86" t="s">
-        <v>259</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4829,25 +4923,18 @@
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>536</v>
-      </c>
-      <c r="C87" t="s">
-        <v>600</v>
-      </c>
-      <c r="D87" t="s">
-        <v>322</v>
-      </c>
-      <c r="E87" t="s">
-        <v>323</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -4856,26 +4943,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
-      </c>
-      <c r="C88" t="s">
-        <v>601</v>
-      </c>
-      <c r="D88" t="s">
-        <v>326</v>
-      </c>
-      <c r="E88" t="s">
-        <v>327</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
       <c r="F88" t="s">
-        <v>706</v>
-      </c>
-      <c r="G88"/>
+        <v>734</v>
+      </c>
+      <c r="G88" t="s">
+        <v>328</v>
+      </c>
       <c r="H88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4884,28 +4966,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>547</v>
-      </c>
-      <c r="C89" t="s">
-        <v>602</v>
-      </c>
-      <c r="D89" t="s">
-        <v>330</v>
-      </c>
-      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>735</v>
+      </c>
+      <c r="G89" t="s">
         <v>331</v>
       </c>
-      <c r="F89" t="s">
-        <v>693</v>
-      </c>
-      <c r="G89" t="s">
-        <v>258</v>
-      </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4914,25 +4989,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
-        <v>548</v>
-      </c>
-      <c r="C90" t="s">
-        <v>603</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" t="s">
+        <v>571</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>736</v>
+      </c>
+      <c r="G90" t="s">
         <v>334</v>
-      </c>
-      <c r="F90" t="s">
-        <v>335</v>
-      </c>
-      <c r="G90" t="s">
-        <v>335</v>
       </c>
       <c r="H90" t="s">
         <v>335</v>
@@ -4947,25 +5015,18 @@
         <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>548</v>
-      </c>
-      <c r="C91" t="s">
-        <v>604</v>
-      </c>
-      <c r="D91" t="s">
+        <v>571</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>737</v>
+      </c>
+      <c r="G91" t="s">
         <v>337</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>338</v>
-      </c>
-      <c r="F91" t="s">
-        <v>335</v>
-      </c>
-      <c r="G91" t="s">
-        <v>335</v>
-      </c>
-      <c r="H91" t="s">
-        <v>335</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -4977,10 +5038,10 @@
         <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C92" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="D92" t="s">
         <v>340</v>
@@ -4989,13 +5050,13 @@
         <v>341</v>
       </c>
       <c r="F92" t="s">
-        <v>335</v>
+        <v>738</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H92" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -5004,28 +5065,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C93" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="D93" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E93" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F93" t="s">
-        <v>335</v>
+        <v>722</v>
       </c>
       <c r="G93" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5034,28 +5095,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" t="s">
+        <v>560</v>
+      </c>
+      <c r="C94" t="s">
+        <v>626</v>
+      </c>
+      <c r="D94" t="s">
         <v>345</v>
       </c>
-      <c r="B94" t="s">
-        <v>529</v>
-      </c>
-      <c r="C94" t="s">
-        <v>607</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>346</v>
       </c>
-      <c r="E94" t="s">
-        <v>347</v>
-      </c>
       <c r="F94" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="G94" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5064,21 +5125,26 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" t="s">
+        <v>560</v>
+      </c>
+      <c r="C95" t="s">
+        <v>627</v>
+      </c>
+      <c r="D95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" t="s">
         <v>350</v>
       </c>
-      <c r="B95" t="s">
-        <v>529</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
       <c r="F95" t="s">
-        <v>708</v>
-      </c>
-      <c r="G95" t="s">
+        <v>739</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="s">
         <v>351</v>
-      </c>
-      <c r="H95" t="s">
-        <v>352</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5087,28 +5153,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>628</v>
+      </c>
+      <c r="D96" t="s">
         <v>353</v>
       </c>
-      <c r="B96" t="s">
-        <v>536</v>
-      </c>
-      <c r="C96" t="s">
-        <v>608</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>354</v>
       </c>
-      <c r="E96" t="s">
-        <v>355</v>
-      </c>
       <c r="F96" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G96" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="H96" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5117,28 +5183,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" t="s">
+        <v>573</v>
+      </c>
+      <c r="C97" t="s">
+        <v>629</v>
+      </c>
+      <c r="D97" t="s">
+        <v>356</v>
+      </c>
+      <c r="E97" t="s">
+        <v>357</v>
+      </c>
+      <c r="F97" t="s">
         <v>358</v>
       </c>
-      <c r="B97" t="s">
-        <v>529</v>
-      </c>
-      <c r="C97" t="s">
-        <v>609</v>
-      </c>
-      <c r="D97" t="s">
-        <v>359</v>
-      </c>
-      <c r="E97" t="s">
-        <v>360</v>
-      </c>
-      <c r="F97" t="s">
-        <v>710</v>
-      </c>
       <c r="G97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H97" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5147,21 +5213,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>529</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
+        <v>573</v>
+      </c>
+      <c r="C98" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
+        <v>361</v>
+      </c>
       <c r="F98" t="s">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H98" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5170,28 +5243,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B99" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="C99" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="D99" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F99" t="s">
-        <v>712</v>
+        <v>358</v>
       </c>
       <c r="G99" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5200,28 +5273,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="C100" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="D100" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
-        <v>713</v>
+        <v>358</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="H100" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5230,21 +5303,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
-        <v>529</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
+        <v>552</v>
+      </c>
+      <c r="C101" t="s">
+        <v>633</v>
+      </c>
+      <c r="D101" t="s">
+        <v>369</v>
+      </c>
+      <c r="E101" t="s">
+        <v>370</v>
+      </c>
       <c r="F101" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H101" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5253,28 +5333,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
-      </c>
-      <c r="C102" t="s">
-        <v>612</v>
-      </c>
-      <c r="D102" t="s">
-        <v>380</v>
-      </c>
-      <c r="E102" t="s">
-        <v>381</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="G102" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H102" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5283,28 +5356,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C103" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="D103" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="G103" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H103" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5313,21 +5386,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
-        <v>550</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
+        <v>552</v>
+      </c>
+      <c r="C104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D104" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" t="s">
+        <v>383</v>
+      </c>
       <c r="F104" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="G104" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H104" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5336,28 +5416,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>536</v>
-      </c>
-      <c r="C105" t="s">
-        <v>614</v>
-      </c>
-      <c r="D105" t="s">
-        <v>393</v>
-      </c>
-      <c r="E105" t="s">
-        <v>394</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="G105" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H105" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5366,28 +5439,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C106" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="D106" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="G106" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H106" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5396,28 +5469,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B107" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C107" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E107" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F107" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="G107" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H107" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5426,28 +5499,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B108" t="s">
-        <v>536</v>
-      </c>
-      <c r="C108" t="s">
-        <v>617</v>
-      </c>
-      <c r="D108" t="s">
-        <v>408</v>
-      </c>
-      <c r="E108" t="s">
-        <v>409</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
       <c r="F108" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="G108" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H108" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5456,28 +5522,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B109" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="D109" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E109" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="G109" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H109" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5486,28 +5552,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B110" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E110" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F110" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="G110" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H110" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5516,28 +5582,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B111" t="s">
-        <v>553</v>
-      </c>
-      <c r="C111" t="s">
-        <v>620</v>
-      </c>
-      <c r="D111" t="s">
-        <v>423</v>
-      </c>
-      <c r="E111" t="s">
-        <v>424</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
       <c r="F111" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="G111" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H111" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5546,28 +5605,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D112" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E112" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="G112" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="H112" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5576,28 +5635,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C113" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="D113" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E113" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F113" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="G113" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H113" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5606,28 +5665,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="C114" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="D114" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="G114" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H114" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5636,28 +5695,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B115" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C115" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D115" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F115" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="G115" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H115" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5666,28 +5725,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B116" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C116" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D116" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E116" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F116" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="G116" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H116" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5696,28 +5755,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="C117" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E117" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F117" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="G117" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="H117" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5726,28 +5785,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B118" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="C118" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D118" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E118" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="G118" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5756,28 +5815,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B119" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="D119" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E119" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F119" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="G119" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H119" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5786,28 +5845,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C120" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="D120" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E120" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F120" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="G120" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="H120" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5816,28 +5875,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C121" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="D121" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E121" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F121" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="G121" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H121" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5846,28 +5905,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B122" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C122" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="D122" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E122" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F122" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="G122" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5876,28 +5935,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B123" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="C123" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="D123" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E123" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F123" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="G123" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H123" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5906,28 +5965,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="D124" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E124" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F124" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="G124" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H124" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5936,28 +5995,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B125" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C125" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="D125" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E125" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F125" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="G125" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H125" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5966,28 +6025,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B126" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C126" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="D126" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E126" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F126" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="G126" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H126" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -5996,28 +6055,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D127" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E127" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F127" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="G127" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H127" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6026,28 +6085,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B128" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C128" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="D128" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E128" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F128" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="G128" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H128" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6056,28 +6115,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B129" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C129" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="D129" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F129" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="G129" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H129" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6086,28 +6145,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D130" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="E130" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F130" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="G130" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H130" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6116,28 +6175,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B131" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C131" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="D131" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="E131" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="G131" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H131" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6146,33 +6205,243 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B132" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="D132" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E132" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F132" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="G132" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="H132" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
       <c r="M132"/>
       <c r="N132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>517</v>
+      </c>
+      <c r="B133" t="s">
+        <v>560</v>
+      </c>
+      <c r="C133" t="s">
+        <v>660</v>
+      </c>
+      <c r="D133" t="s">
+        <v>518</v>
+      </c>
+      <c r="E133" t="s">
+        <v>519</v>
+      </c>
+      <c r="F133" t="s">
+        <v>772</v>
+      </c>
+      <c r="G133" t="s">
+        <v>520</v>
+      </c>
+      <c r="H133" t="s">
+        <v>521</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>522</v>
+      </c>
+      <c r="B134" t="s">
+        <v>560</v>
+      </c>
+      <c r="C134" t="s">
+        <v>661</v>
+      </c>
+      <c r="D134" t="s">
+        <v>523</v>
+      </c>
+      <c r="E134" t="s">
+        <v>524</v>
+      </c>
+      <c r="F134" t="s">
+        <v>773</v>
+      </c>
+      <c r="G134" t="s">
+        <v>525</v>
+      </c>
+      <c r="H134" t="s">
+        <v>526</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" t="s">
+        <v>560</v>
+      </c>
+      <c r="C135" t="s">
+        <v>662</v>
+      </c>
+      <c r="D135" t="s">
+        <v>528</v>
+      </c>
+      <c r="E135" t="s">
+        <v>529</v>
+      </c>
+      <c r="F135" t="s">
+        <v>774</v>
+      </c>
+      <c r="G135" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" t="s">
+        <v>531</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>532</v>
+      </c>
+      <c r="B136" t="s">
+        <v>560</v>
+      </c>
+      <c r="C136" t="s">
+        <v>663</v>
+      </c>
+      <c r="D136" t="s">
+        <v>533</v>
+      </c>
+      <c r="E136" t="s">
+        <v>534</v>
+      </c>
+      <c r="F136" t="s">
+        <v>775</v>
+      </c>
+      <c r="G136" t="s">
+        <v>535</v>
+      </c>
+      <c r="H136" t="s">
+        <v>536</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" t="s">
+        <v>579</v>
+      </c>
+      <c r="C137" t="s">
+        <v>664</v>
+      </c>
+      <c r="D137" t="s">
+        <v>538</v>
+      </c>
+      <c r="E137" t="s">
+        <v>539</v>
+      </c>
+      <c r="F137" t="s">
+        <v>776</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+      <c r="H137" t="s">
+        <v>541</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>542</v>
+      </c>
+      <c r="B138" t="s">
+        <v>580</v>
+      </c>
+      <c r="C138" t="s">
+        <v>665</v>
+      </c>
+      <c r="D138" t="s">
+        <v>543</v>
+      </c>
+      <c r="E138" t="s">
+        <v>544</v>
+      </c>
+      <c r="F138" t="s">
+        <v>777</v>
+      </c>
+      <c r="G138" t="s">
+        <v>545</v>
+      </c>
+      <c r="H138" t="s">
+        <v>546</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>547</v>
+      </c>
+      <c r="B139" t="s">
+        <v>581</v>
+      </c>
+      <c r="C139" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" t="s">
+        <v>549</v>
+      </c>
+      <c r="F139" t="s">
+        <v>778</v>
+      </c>
+      <c r="G139" t="s">
+        <v>550</v>
+      </c>
+      <c r="H139" t="s">
+        <v>551</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="M139"/>
+      <c r="N139"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Original/CN/Game/Quest.xlsx
+++ b/Original/CN/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="816">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Spice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">至高の味の謎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyche asked you to uncover the secret behind the flavor of “Dragons and Spices” curry. There might be a clue hidden beneath the Doga Ruins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気ままな傭兵ティケに、「竜と香辛料」のカレーの味の秘密を探るよう頼まれた。ドーガ遺跡の地下に何か手がかりがあるかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curry1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You discovered a mechanical factory in the depths of the ruins and destroyed its chief. Time to report back to Tyche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガ遺跡の地下で機械工場を見つけ、工場長を破壊した。ティケに報告しよう。</t>
   </si>
   <si>
     <t xml:space="preserve">nasu</t>
@@ -964,19 +988,61 @@
     <t xml:space="preserve">闇へ</t>
   </si>
   <si>
-    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
+    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。</t>
   </si>
   <si>
     <t xml:space="preserve">into_darkness1</t>
   </si>
   <si>
-    <t xml:space="preserve">To be continued.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次回へ続く。</t>
+    <t xml:space="preserve">|Let's wait for Kettle to return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ケトルの帰りを待とう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|It seems that you must throw some kind of liquid into the "Stagnation" at the farthest depth of the Crypt of the Damned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者の洞窟の最奥にある「淀み」に、何らかの液体を投げ入れなければならないようだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Defeat Azrasizzle!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|アズラシズルを倒せ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Your business in the Crypt of the Damned is done. Time to return to your base and talk to Kettle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者の洞窟での用は終わった。拠点でケトルに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Your business in the Crypt of the Damned is done. Time to return to your base and await Issizzle's visit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者の洞窟での用は終わった。拠点でイスシズルからの報せを待とう。</t>
   </si>
   <si>
     <t xml:space="preserve">negotiation_darkness</t>
@@ -1033,10 +1099,10 @@
     <t xml:space="preserve">negotiation_darkness5</t>
   </si>
   <si>
-    <t xml:space="preserve">|Let's wait for Kettle to come back. (Continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|ケトルの帰りを待とう。（続く）</t>
+    <t xml:space="preserve">|You have finished your business in the Village of Atonement. Let's wait for Kettle to return. (To be continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|贖罪の村での用事を終えた。ケトルの帰りを待とう。（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -1857,6 +1923,9 @@
     <t xml:space="preserve">EA 23.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.217</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.184</t>
   </si>
   <si>
@@ -1905,12 +1974,30 @@
     <t xml:space="preserve">Beta 22.86</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.249</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.136</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.198</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.247</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
@@ -1945,6 +2032,9 @@
   </si>
   <si>
     <t xml:space="preserve">米西利亚的复兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绝味之谜</t>
   </si>
   <si>
     <t xml:space="preserve">追寻传说之包的秘密！</t>
@@ -2251,6 +2341,12 @@
     <t xml:space="preserve">米西利亚为了自身的存续和复兴正迫切需要更多盟友。新天地如果能继续发展下去，也许会得到米西利亚方的联系。</t>
   </si>
   <si>
+    <t xml:space="preserve">随性的佣兵缇克委托调查「龙与香辛料」的咖喱风味的秘密。或许在多伽遗迹的地下能找到线索。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在多伽遗迹的地下发现了机械工厂，并破坏了工厂长。向缇克报告吧。</t>
+  </si>
+  <si>
     <t xml:space="preserve">带上娜娜苏，探索斯普睿西北边的不归之森吧。</t>
   </si>
   <si>
@@ -2429,10 +2525,22 @@
     <t xml:space="preserve">总觉得有人躲藏在身后。</t>
   </si>
   <si>
-    <t xml:space="preserve">大家能来集合一下吗？|必须考虑应对伊斯西泽尔的办法。(待续)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">待续。</t>
+    <t xml:space="preserve">大家能来集合一下吗？|必须考虑应对伊斯西泽尔的办法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|等待凯特尔归来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|似乎必须向死者的洞窟最深处的「黑潭」中投入某种液体。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|打败安茨拉西祖鲁！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者的洞窟任务结束。回到据点和凯特尔谈谈吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者的洞窟任务结束。回到据点等待伊斯西泽尔的消息吧。</t>
   </si>
   <si>
     <t xml:space="preserve">你有见到凯特尔吗？|从迪米塔斯那里拿到了可以解除结界的手环。去拜访米西利亚东方的流放者之村吧。</t>
@@ -2444,13 +2552,13 @@
     <t xml:space="preserve">|流放者长老比切林委托你将露里耶海底神殿的迪伯妮带回来。</t>
   </si>
   <si>
-    <t xml:space="preserve">|你找到了露里耶海底神殿最深处成长为龙的迪伯妮。但想不到要怎么把它带回去…</t>
+    <t xml:space="preserve">|你找到了露里耶海底神殿最深处成长为龙的迪伯妮。这样是很难把它带回去的，不知道有没有什么办法？</t>
   </si>
   <si>
     <t xml:space="preserve">|完成了比切林的委托。需回到赎罪村向比切林报告。</t>
   </si>
   <si>
-    <t xml:space="preserve">|等待凯特尔归来。（待续）</t>
+    <t xml:space="preserve">|赎罪村的事已经办完了。接下来等待凯特尔归来吧。(待续)</t>
   </si>
   <si>
     <t xml:space="preserve">汝是否略懂些魔法？</t>
@@ -2762,10 +2870,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2774,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2792,7 +2900,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2804,7 +2912,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2822,12 +2930,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2845,10 +2953,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2857,7 +2965,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2875,10 +2983,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="C7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2887,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2905,12 +3013,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2928,18 +3036,25 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>577</v>
+      </c>
+      <c r="C9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -2948,22 +3063,15 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C10" t="s">
-        <v>585</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2981,12 +3089,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -3004,10 +3112,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="C12" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -3016,7 +3124,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -3026,137 +3134,130 @@
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" t="s">
-        <v>779</v>
-      </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
+      <c r="M12"/>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C13" t="s">
-        <v>587</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>677</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" t="s">
-        <v>65</v>
-      </c>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="L14" t="s">
+        <v>815</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>552</v>
-      </c>
-      <c r="C15" t="s">
-        <v>589</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>679</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
-        <v>552</v>
-      </c>
-      <c r="C16" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>710</v>
+      </c>
+      <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>680</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -3165,26 +3266,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
-        <v>552</v>
-      </c>
-      <c r="C17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>711</v>
+      </c>
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>681</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17" t="s">
-        <v>84</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -3193,19 +3296,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
-        <v>552</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
       <c r="F18" t="s">
-        <v>682</v>
-      </c>
-      <c r="G18"/>
+        <v>712</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -3214,15 +3326,27 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>574</v>
+      </c>
+      <c r="C19" t="s">
+        <v>621</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>713</v>
+      </c>
       <c r="G19"/>
-      <c r="H19"/>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3230,28 +3354,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
-      </c>
-      <c r="C20" t="s">
-        <v>592</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>683</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3260,10 +3375,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3276,28 +3391,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="C22" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -3306,22 +3421,15 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" t="s">
-        <v>685</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="M23"/>
@@ -3332,18 +3440,25 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
+        <v>574</v>
+      </c>
+      <c r="C24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
       <c r="F24" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -3352,15 +3467,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+      <c r="F25" t="s">
+        <v>717</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="M25"/>
@@ -3368,28 +3490,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>558</v>
-      </c>
-      <c r="C26" t="s">
-        <v>594</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3398,10 +3513,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3414,28 +3529,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="C28" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3444,29 +3559,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" t="s">
-        <v>596</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>679</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3474,25 +3575,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="C30" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -3507,18 +3608,25 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>558</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
+        <v>582</v>
+      </c>
+      <c r="C31" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
       <c r="F31" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3530,12 +3638,26 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>558</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="G32"/>
-      <c r="H32"/>
+        <v>581</v>
+      </c>
+      <c r="C32" t="s">
+        <v>627</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>720</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="M32"/>
@@ -3543,28 +3665,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" t="s">
-        <v>598</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -3573,22 +3688,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" t="s">
-        <v>691</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
@@ -3599,18 +3707,25 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
+        <v>583</v>
+      </c>
+      <c r="C35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
       <c r="F35" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3619,15 +3734,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="F36" t="s">
+        <v>723</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="M36"/>
@@ -3635,28 +3757,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>552</v>
-      </c>
-      <c r="C37" t="s">
-        <v>599</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="F37" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3665,22 +3780,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="s">
-        <v>694</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
+      <c r="G38"/>
+      <c r="H38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3691,12 +3799,26 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="G39"/>
-      <c r="H39"/>
+        <v>574</v>
+      </c>
+      <c r="C39" t="s">
+        <v>629</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>725</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="M39"/>
@@ -3704,28 +3826,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>561</v>
-      </c>
-      <c r="C40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3734,10 +3849,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -3750,28 +3865,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="C42" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -3780,22 +3895,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" t="s">
-        <v>697</v>
-      </c>
-      <c r="G43" t="s">
-        <v>161</v>
-      </c>
-      <c r="H43" t="s">
-        <v>162</v>
-      </c>
+      <c r="G43"/>
+      <c r="H43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="M43"/>
@@ -3806,18 +3914,25 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>552</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
+        <v>574</v>
+      </c>
+      <c r="C44" t="s">
+        <v>631</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3826,21 +3941,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3849,21 +3964,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3872,21 +3987,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3895,15 +4010,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="G48"/>
-      <c r="H48"/>
+      <c r="F48" t="s">
+        <v>731</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>176</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="M48"/>
@@ -3911,28 +4033,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>558</v>
-      </c>
-      <c r="C49" t="s">
-        <v>602</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" t="s">
-        <v>176</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3941,29 +4056,15 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>558</v>
-      </c>
-      <c r="C50" t="s">
-        <v>603</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s">
-        <v>702</v>
-      </c>
-      <c r="G50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" t="s">
-        <v>183</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="G50"/>
+      <c r="H50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -3971,15 +4072,29 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>581</v>
+      </c>
+      <c r="C51" t="s">
+        <v>632</v>
+      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
         <v>184</v>
       </c>
-      <c r="B51" t="s">
-        <v>558</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="G51"/>
-      <c r="H51"/>
+      <c r="F51" t="s">
+        <v>733</v>
+      </c>
+      <c r="G51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" t="s">
+        <v>186</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -3987,28 +4102,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -4017,10 +4132,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4033,28 +4148,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C54" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F54" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -4063,29 +4178,15 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>562</v>
-      </c>
-      <c r="C55" t="s">
-        <v>606</v>
-      </c>
-      <c r="D55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" t="s">
-        <v>705</v>
-      </c>
-      <c r="G55" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" t="s">
-        <v>200</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="G55"/>
+      <c r="H55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="M55"/>
@@ -4093,28 +4194,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>585</v>
+      </c>
+      <c r="C56" t="s">
+        <v>635</v>
+      </c>
+      <c r="D56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
-        <v>562</v>
-      </c>
-      <c r="C56" t="s">
-        <v>607</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>736</v>
+      </c>
+      <c r="G56" t="s">
         <v>202</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>203</v>
-      </c>
-      <c r="F56" t="s">
-        <v>706</v>
-      </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" t="s">
-        <v>205</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -4123,28 +4224,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>585</v>
+      </c>
+      <c r="C57" t="s">
+        <v>636</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
         <v>206</v>
       </c>
-      <c r="B57" t="s">
-        <v>562</v>
-      </c>
-      <c r="C57" t="s">
-        <v>608</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>737</v>
+      </c>
+      <c r="G57" t="s">
         <v>207</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>208</v>
-      </c>
-      <c r="F57" t="s">
-        <v>707</v>
-      </c>
-      <c r="G57" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" t="s">
-        <v>210</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -4153,28 +4254,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>585</v>
+      </c>
+      <c r="C58" t="s">
+        <v>637</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
-        <v>560</v>
-      </c>
-      <c r="C58" t="s">
-        <v>609</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>738</v>
+      </c>
+      <c r="G58" t="s">
         <v>212</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>213</v>
-      </c>
-      <c r="F58" t="s">
-        <v>708</v>
-      </c>
-      <c r="G58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" t="s">
-        <v>215</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4183,28 +4284,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
+        <v>585</v>
+      </c>
+      <c r="C59" t="s">
+        <v>638</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
-        <v>563</v>
-      </c>
-      <c r="C59" t="s">
-        <v>610</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>739</v>
+      </c>
+      <c r="G59" t="s">
         <v>217</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>218</v>
-      </c>
-      <c r="F59" t="s">
-        <v>709</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" t="s">
-        <v>220</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4213,28 +4314,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>583</v>
+      </c>
+      <c r="C60" t="s">
+        <v>639</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
         <v>221</v>
       </c>
-      <c r="B60" t="s">
-        <v>560</v>
-      </c>
-      <c r="C60" t="s">
-        <v>611</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>740</v>
+      </c>
+      <c r="G60" t="s">
         <v>222</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>223</v>
-      </c>
-      <c r="F60" t="s">
-        <v>710</v>
-      </c>
-      <c r="G60" t="s">
-        <v>224</v>
-      </c>
-      <c r="H60" t="s">
-        <v>225</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -4243,28 +4344,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>586</v>
+      </c>
+      <c r="C61" t="s">
+        <v>640</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
-        <v>560</v>
-      </c>
-      <c r="C61" t="s">
-        <v>612</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>741</v>
+      </c>
+      <c r="G61" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>228</v>
-      </c>
-      <c r="F61" t="s">
-        <v>711</v>
-      </c>
-      <c r="G61" t="s">
-        <v>229</v>
-      </c>
-      <c r="H61" t="s">
-        <v>230</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -4273,15 +4374,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>583</v>
+      </c>
+      <c r="C62" t="s">
+        <v>641</v>
+      </c>
+      <c r="D62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
         <v>231</v>
       </c>
-      <c r="B62" t="s">
-        <v>560</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -4299,18 +4407,25 @@
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>560</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
+        <v>583</v>
+      </c>
+      <c r="C63" t="s">
+        <v>642</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
       <c r="F63" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -4319,21 +4434,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4342,21 +4457,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4365,21 +4480,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -4388,21 +4503,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4411,21 +4526,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -4434,21 +4549,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
@@ -4457,21 +4572,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4480,17 +4595,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
+      <c r="F71" t="s">
+        <v>751</v>
+      </c>
       <c r="G71" t="s">
-        <v>259</v>
-      </c>
-      <c r="H71"/>
+        <v>261</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="M71"/>
@@ -4498,17 +4618,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
+      <c r="F72" t="s">
+        <v>752</v>
+      </c>
       <c r="G72" t="s">
-        <v>259</v>
-      </c>
-      <c r="H72"/>
+        <v>264</v>
+      </c>
+      <c r="H72" t="s">
+        <v>265</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="M72"/>
@@ -4516,29 +4641,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>560</v>
-      </c>
-      <c r="C73" t="s">
-        <v>613</v>
-      </c>
-      <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" t="s">
-        <v>721</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
       <c r="G73" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" t="s">
-        <v>265</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="M73"/>
@@ -4546,29 +4659,17 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>560</v>
-      </c>
-      <c r="C74" t="s">
-        <v>614</v>
-      </c>
-      <c r="D74" t="s">
+        <v>583</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="G74" t="s">
         <v>267</v>
       </c>
-      <c r="E74" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" t="s">
-        <v>722</v>
-      </c>
-      <c r="G74" t="s">
-        <v>269</v>
-      </c>
-      <c r="H74" t="s">
-        <v>270</v>
-      </c>
+      <c r="H74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="M74"/>
@@ -4576,28 +4677,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C75" t="s">
+        <v>643</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" t="s">
         <v>271</v>
       </c>
-      <c r="B75" t="s">
-        <v>567</v>
-      </c>
-      <c r="C75" t="s">
-        <v>615</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>753</v>
+      </c>
+      <c r="G75" t="s">
         <v>272</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>273</v>
-      </c>
-      <c r="F75" t="s">
-        <v>723</v>
-      </c>
-      <c r="G75" t="s">
-        <v>274</v>
-      </c>
-      <c r="H75" t="s">
-        <v>275</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4606,28 +4707,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" t="s">
+        <v>583</v>
+      </c>
+      <c r="C76" t="s">
+        <v>644</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
         <v>276</v>
       </c>
-      <c r="B76" t="s">
-        <v>567</v>
-      </c>
-      <c r="C76" t="s">
-        <v>616</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
+        <v>754</v>
+      </c>
+      <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>278</v>
-      </c>
-      <c r="F76" t="s">
-        <v>724</v>
-      </c>
-      <c r="G76" t="s">
-        <v>279</v>
-      </c>
-      <c r="H76" t="s">
-        <v>280</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4636,28 +4737,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>590</v>
+      </c>
+      <c r="C77" t="s">
+        <v>645</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
         <v>281</v>
       </c>
-      <c r="B77" t="s">
-        <v>568</v>
-      </c>
-      <c r="C77" t="s">
-        <v>617</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>755</v>
+      </c>
+      <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>283</v>
-      </c>
-      <c r="F77" t="s">
-        <v>725</v>
-      </c>
-      <c r="G77" t="s">
-        <v>284</v>
-      </c>
-      <c r="H77" t="s">
-        <v>285</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4666,19 +4767,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" t="s">
+        <v>590</v>
+      </c>
+      <c r="C78" t="s">
+        <v>646</v>
+      </c>
+      <c r="D78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" t="s">
         <v>286</v>
       </c>
-      <c r="B78" t="s">
-        <v>552</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78"/>
       <c r="F78" t="s">
+        <v>756</v>
+      </c>
+      <c r="G78" t="s">
         <v>287</v>
       </c>
-      <c r="G78"/>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4687,28 +4797,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="C79" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4717,28 +4827,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
-      </c>
-      <c r="C80" t="s">
-        <v>619</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" t="s">
+        <v>574</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" t="s">
         <v>295</v>
       </c>
-      <c r="F80" t="s">
-        <v>727</v>
-      </c>
-      <c r="G80" t="s">
-        <v>296</v>
-      </c>
+      <c r="G80"/>
       <c r="H80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4747,28 +4848,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>592</v>
+      </c>
+      <c r="C81" t="s">
+        <v>648</v>
+      </c>
+      <c r="D81" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" t="s">
         <v>298</v>
       </c>
-      <c r="B81" t="s">
-        <v>569</v>
-      </c>
-      <c r="C81" t="s">
-        <v>620</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>758</v>
+      </c>
+      <c r="G81" t="s">
         <v>299</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>300</v>
-      </c>
-      <c r="F81" t="s">
-        <v>728</v>
-      </c>
-      <c r="G81" t="s">
-        <v>301</v>
-      </c>
-      <c r="H81" t="s">
-        <v>302</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4777,28 +4878,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" t="s">
+        <v>592</v>
+      </c>
+      <c r="C82" t="s">
+        <v>649</v>
+      </c>
+      <c r="D82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" t="s">
         <v>303</v>
       </c>
-      <c r="B82" t="s">
-        <v>569</v>
-      </c>
-      <c r="C82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
+        <v>759</v>
+      </c>
+      <c r="G82" t="s">
         <v>304</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>305</v>
-      </c>
-      <c r="F82" t="s">
-        <v>710</v>
-      </c>
-      <c r="G82" t="s">
-        <v>224</v>
-      </c>
-      <c r="H82" t="s">
-        <v>225</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -4810,10 +4911,10 @@
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C83" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -4822,7 +4923,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4840,10 +4941,10 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="C84" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -4852,13 +4953,13 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="H84" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4867,15 +4968,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" t="s">
+        <v>592</v>
+      </c>
+      <c r="C85" t="s">
+        <v>652</v>
+      </c>
+      <c r="D85" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" t="s">
         <v>316</v>
       </c>
-      <c r="B85" t="s">
-        <v>563</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85"/>
       <c r="F85" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4893,10 +5001,10 @@
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C86" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="D86" t="s">
         <v>320</v>
@@ -4905,7 +5013,7 @@
         <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="G86" t="s">
         <v>322</v>
@@ -4923,12 +5031,12 @@
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="G87" t="s">
         <v>325</v>
@@ -4946,18 +5054,18 @@
         <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="G88" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4966,21 +5074,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>594</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H89" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4989,21 +5097,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="G90" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H90" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -5012,21 +5120,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B91" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="G91" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H91" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -5035,28 +5143,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>563</v>
-      </c>
-      <c r="C92" t="s">
-        <v>625</v>
-      </c>
-      <c r="D92" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" t="s">
-        <v>341</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
       <c r="F92" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="G92" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H92" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -5065,28 +5166,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C93" t="s">
-        <v>626</v>
-      </c>
-      <c r="D93" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93" t="s">
-        <v>346</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
       <c r="F93" t="s">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5095,28 +5189,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="C94" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D94" t="s">
+        <v>342</v>
+      </c>
+      <c r="E94" t="s">
+        <v>343</v>
+      </c>
+      <c r="F94" t="s">
+        <v>768</v>
+      </c>
+      <c r="G94" t="s">
+        <v>344</v>
+      </c>
+      <c r="H94" t="s">
         <v>345</v>
-      </c>
-      <c r="E94" t="s">
-        <v>346</v>
-      </c>
-      <c r="F94" t="s">
-        <v>722</v>
-      </c>
-      <c r="G94" t="s">
-        <v>269</v>
-      </c>
-      <c r="H94" t="s">
-        <v>270</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5125,26 +5219,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>346</v>
+      </c>
+      <c r="B95" t="s">
+        <v>598</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>769</v>
+      </c>
+      <c r="G95" t="s">
+        <v>347</v>
+      </c>
+      <c r="H95" t="s">
         <v>348</v>
-      </c>
-      <c r="B95" t="s">
-        <v>560</v>
-      </c>
-      <c r="C95" t="s">
-        <v>627</v>
-      </c>
-      <c r="D95" t="s">
-        <v>349</v>
-      </c>
-      <c r="E95" t="s">
-        <v>350</v>
-      </c>
-      <c r="F95" t="s">
-        <v>739</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95" t="s">
-        <v>351</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5153,28 +5242,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>572</v>
-      </c>
-      <c r="C96" t="s">
-        <v>628</v>
-      </c>
-      <c r="D96" t="s">
-        <v>353</v>
-      </c>
-      <c r="E96" t="s">
-        <v>354</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
       <c r="F96" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="G96" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="H96" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5183,28 +5265,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s">
-        <v>573</v>
-      </c>
-      <c r="C97" t="s">
-        <v>629</v>
-      </c>
-      <c r="D97" t="s">
-        <v>356</v>
-      </c>
-      <c r="E97" t="s">
-        <v>357</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
       <c r="F97" t="s">
-        <v>358</v>
+        <v>771</v>
       </c>
       <c r="G97" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5213,28 +5288,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
-      </c>
-      <c r="C98" t="s">
-        <v>630</v>
-      </c>
-      <c r="D98" t="s">
-        <v>360</v>
-      </c>
-      <c r="E98" t="s">
-        <v>361</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
       <c r="F98" t="s">
-        <v>358</v>
+        <v>772</v>
       </c>
       <c r="G98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5243,28 +5311,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B99" t="s">
-        <v>573</v>
-      </c>
-      <c r="C99" t="s">
-        <v>631</v>
-      </c>
-      <c r="D99" t="s">
-        <v>363</v>
-      </c>
-      <c r="E99" t="s">
-        <v>364</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
       <c r="F99" t="s">
-        <v>358</v>
+        <v>773</v>
       </c>
       <c r="G99" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H99" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5273,28 +5334,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" t="s">
+        <v>586</v>
+      </c>
+      <c r="C100" t="s">
+        <v>655</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" t="s">
+        <v>363</v>
+      </c>
+      <c r="F100" t="s">
+        <v>774</v>
+      </c>
+      <c r="G100" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" t="s">
         <v>365</v>
-      </c>
-      <c r="B100" t="s">
-        <v>573</v>
-      </c>
-      <c r="C100" t="s">
-        <v>632</v>
-      </c>
-      <c r="D100" t="s">
-        <v>366</v>
-      </c>
-      <c r="E100" t="s">
-        <v>367</v>
-      </c>
-      <c r="F100" t="s">
-        <v>358</v>
-      </c>
-      <c r="G100" t="s">
-        <v>358</v>
-      </c>
-      <c r="H100" t="s">
-        <v>358</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5303,28 +5364,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>583</v>
+      </c>
+      <c r="C101" t="s">
+        <v>656</v>
+      </c>
+      <c r="D101" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" t="s">
         <v>368</v>
       </c>
-      <c r="B101" t="s">
-        <v>552</v>
-      </c>
-      <c r="C101" t="s">
-        <v>633</v>
-      </c>
-      <c r="D101" t="s">
-        <v>369</v>
-      </c>
-      <c r="E101" t="s">
-        <v>370</v>
-      </c>
       <c r="F101" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="H101" t="s">
-        <v>372</v>
+        <v>278</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5333,21 +5394,28 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>552</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
+        <v>583</v>
+      </c>
+      <c r="C102" t="s">
+        <v>656</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" t="s">
+        <v>368</v>
+      </c>
       <c r="F102" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="G102" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="H102" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5356,28 +5424,26 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C103" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="D103" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E103" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F103" t="s">
-        <v>742</v>
-      </c>
-      <c r="G103" t="s">
-        <v>379</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="G103"/>
       <c r="H103" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5386,28 +5452,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B104" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="C104" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="D104" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F104" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="G104" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="H104" t="s">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5416,21 +5482,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B105" t="s">
-        <v>552</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
+        <v>602</v>
+      </c>
+      <c r="C105" t="s">
+        <v>659</v>
+      </c>
+      <c r="D105" t="s">
+        <v>378</v>
+      </c>
+      <c r="E105" t="s">
+        <v>379</v>
+      </c>
       <c r="F105" t="s">
-        <v>744</v>
+        <v>380</v>
       </c>
       <c r="G105" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5439,28 +5512,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="C106" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E106" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>745</v>
+        <v>380</v>
       </c>
       <c r="G106" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H106" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5469,28 +5542,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B107" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="C107" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D107" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F107" t="s">
-        <v>746</v>
+        <v>380</v>
       </c>
       <c r="G107" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H107" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5499,21 +5572,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B108" t="s">
-        <v>552</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108"/>
+        <v>602</v>
+      </c>
+      <c r="C108" t="s">
+        <v>662</v>
+      </c>
+      <c r="D108" t="s">
+        <v>388</v>
+      </c>
+      <c r="E108" t="s">
+        <v>389</v>
+      </c>
       <c r="F108" t="s">
-        <v>747</v>
+        <v>380</v>
       </c>
       <c r="G108" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H108" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5522,28 +5602,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C109" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F109" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="G109" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H109" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5552,28 +5632,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s">
         <v>574</v>
       </c>
-      <c r="C110" t="s">
-        <v>639</v>
-      </c>
-      <c r="D110" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" t="s">
-        <v>409</v>
-      </c>
+      <c r="D110"/>
+      <c r="E110"/>
       <c r="F110" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="G110" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="H110" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5582,21 +5655,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B111" t="s">
-        <v>575</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111"/>
+        <v>583</v>
+      </c>
+      <c r="C111" t="s">
+        <v>664</v>
+      </c>
+      <c r="D111" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" t="s">
+        <v>400</v>
+      </c>
       <c r="F111" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="G111" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H111" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5605,28 +5685,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B112" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C112" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="D112" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F112" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="G112" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H112" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5635,28 +5715,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B113" t="s">
-        <v>560</v>
-      </c>
-      <c r="C113" t="s">
-        <v>641</v>
-      </c>
-      <c r="D113" t="s">
-        <v>421</v>
-      </c>
-      <c r="E113" t="s">
-        <v>422</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
       <c r="F113" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="G113" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="H113" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5665,28 +5738,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B114" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C114" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="D114" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E114" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F114" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="G114" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="H114" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5695,28 +5768,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B115" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C115" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E115" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F115" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="G115" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H115" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5725,28 +5798,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B116" t="s">
-        <v>560</v>
-      </c>
-      <c r="C116" t="s">
-        <v>644</v>
-      </c>
-      <c r="D116" t="s">
-        <v>436</v>
-      </c>
-      <c r="E116" t="s">
-        <v>437</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
       <c r="F116" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="G116" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="H116" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5755,28 +5821,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C117" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E117" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F117" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="G117" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H117" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5785,28 +5851,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B118" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="C118" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="D118" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F118" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="G118" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="H118" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5815,28 +5881,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B119" t="s">
-        <v>560</v>
-      </c>
-      <c r="C119" t="s">
-        <v>647</v>
-      </c>
-      <c r="D119" t="s">
-        <v>451</v>
-      </c>
-      <c r="E119" t="s">
-        <v>452</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
       <c r="F119" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="G119" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="H119" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5845,28 +5904,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B120" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C120" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="D120" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E120" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F120" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="G120" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="H120" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5875,28 +5934,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B121" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C121" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="D121" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="E121" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="F121" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="G121" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="H121" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5905,28 +5964,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="B122" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="C122" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="D122" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="E122" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F122" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="G122" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="H122" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5935,28 +5994,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B123" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="C123" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="D123" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E123" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="F123" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="G123" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="H123" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5965,28 +6024,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B124" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C124" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="D124" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="E124" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F124" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="G124" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="H124" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5995,28 +6054,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B125" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="C125" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="D125" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="E125" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="F125" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="G125" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="H125" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -6025,28 +6084,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B126" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="C126" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="D126" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E126" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F126" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="G126" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H126" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -6055,28 +6114,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B127" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C127" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="D127" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E127" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="F127" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="G127" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="H127" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6085,28 +6144,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="B128" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C128" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="D128" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="E128" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F128" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="G128" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="H128" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6115,28 +6174,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B129" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C129" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="D129" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="E129" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="G129" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="H129" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6145,28 +6204,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B130" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C130" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="D130" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="E130" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="F130" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="G130" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="H130" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6175,28 +6234,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B131" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="C131" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="D131" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E131" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F131" t="s">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="G131" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H131" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6205,28 +6264,28 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B132" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C132" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="D132" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E132" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="F132" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="G132" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="H132" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
@@ -6235,28 +6294,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B133" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C133" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="D133" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E133" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F133" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="G133" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="H133" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
@@ -6265,28 +6324,28 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B134" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C134" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="D134" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E134" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F134" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="G134" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H134" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
@@ -6295,28 +6354,28 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B135" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C135" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="D135" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="E135" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F135" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="G135" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H135" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
@@ -6325,28 +6384,28 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B136" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C136" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="D136" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="E136" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F136" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="G136" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H136" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
@@ -6355,28 +6414,28 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B137" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C137" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="D137" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E137" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F137" t="s">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="G137" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H137" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
@@ -6385,28 +6444,28 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B138" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C138" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="D138" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="E138" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="F138" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="G138" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="H138" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
@@ -6415,33 +6474,273 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C139" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="D139" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E139" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F139" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="G139" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H139" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="M139"/>
       <c r="N139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>534</v>
+      </c>
+      <c r="B140" t="s">
+        <v>583</v>
+      </c>
+      <c r="C140" t="s">
+        <v>689</v>
+      </c>
+      <c r="D140" t="s">
+        <v>535</v>
+      </c>
+      <c r="E140" t="s">
+        <v>536</v>
+      </c>
+      <c r="F140" t="s">
+        <v>807</v>
+      </c>
+      <c r="G140" t="s">
+        <v>537</v>
+      </c>
+      <c r="H140" t="s">
+        <v>538</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>539</v>
+      </c>
+      <c r="B141" t="s">
+        <v>583</v>
+      </c>
+      <c r="C141" t="s">
+        <v>690</v>
+      </c>
+      <c r="D141" t="s">
+        <v>540</v>
+      </c>
+      <c r="E141" t="s">
+        <v>541</v>
+      </c>
+      <c r="F141" t="s">
+        <v>808</v>
+      </c>
+      <c r="G141" t="s">
+        <v>542</v>
+      </c>
+      <c r="H141" t="s">
+        <v>543</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>544</v>
+      </c>
+      <c r="B142" t="s">
+        <v>583</v>
+      </c>
+      <c r="C142" t="s">
+        <v>691</v>
+      </c>
+      <c r="D142" t="s">
+        <v>545</v>
+      </c>
+      <c r="E142" t="s">
+        <v>546</v>
+      </c>
+      <c r="F142" t="s">
+        <v>809</v>
+      </c>
+      <c r="G142" t="s">
+        <v>547</v>
+      </c>
+      <c r="H142" t="s">
+        <v>548</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" t="s">
+        <v>583</v>
+      </c>
+      <c r="C143" t="s">
+        <v>692</v>
+      </c>
+      <c r="D143" t="s">
+        <v>550</v>
+      </c>
+      <c r="E143" t="s">
+        <v>551</v>
+      </c>
+      <c r="F143" t="s">
+        <v>810</v>
+      </c>
+      <c r="G143" t="s">
+        <v>552</v>
+      </c>
+      <c r="H143" t="s">
+        <v>553</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>554</v>
+      </c>
+      <c r="B144" t="s">
+        <v>583</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" t="s">
+        <v>555</v>
+      </c>
+      <c r="E144" t="s">
+        <v>556</v>
+      </c>
+      <c r="F144" t="s">
+        <v>811</v>
+      </c>
+      <c r="G144" t="s">
+        <v>557</v>
+      </c>
+      <c r="H144" t="s">
+        <v>558</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>559</v>
+      </c>
+      <c r="B145" t="s">
+        <v>608</v>
+      </c>
+      <c r="C145" t="s">
+        <v>694</v>
+      </c>
+      <c r="D145" t="s">
+        <v>560</v>
+      </c>
+      <c r="E145" t="s">
+        <v>561</v>
+      </c>
+      <c r="F145" t="s">
+        <v>812</v>
+      </c>
+      <c r="G145" t="s">
+        <v>562</v>
+      </c>
+      <c r="H145" t="s">
+        <v>563</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>564</v>
+      </c>
+      <c r="B146" t="s">
+        <v>609</v>
+      </c>
+      <c r="C146" t="s">
+        <v>695</v>
+      </c>
+      <c r="D146" t="s">
+        <v>565</v>
+      </c>
+      <c r="E146" t="s">
+        <v>566</v>
+      </c>
+      <c r="F146" t="s">
+        <v>813</v>
+      </c>
+      <c r="G146" t="s">
+        <v>567</v>
+      </c>
+      <c r="H146" t="s">
+        <v>568</v>
+      </c>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" t="s">
+        <v>610</v>
+      </c>
+      <c r="C147" t="s">
+        <v>696</v>
+      </c>
+      <c r="D147" t="s">
+        <v>570</v>
+      </c>
+      <c r="E147" t="s">
+        <v>571</v>
+      </c>
+      <c r="F147" t="s">
+        <v>814</v>
+      </c>
+      <c r="G147" t="s">
+        <v>572</v>
+      </c>
+      <c r="H147" t="s">
+        <v>573</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="M147"/>
+      <c r="N147"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Original/CN/Game/Quest.xlsx
+++ b/Original/CN/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="780">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -114,30 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Spice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">至高の味の謎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyche asked you to uncover the secret behind the flavor of “Dragons and Spices” curry. There might be a clue hidden beneath the Doga Ruins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気ままな傭兵ティケに、「竜と香辛料」のカレーの味の秘密を探るよう頼まれた。ドーガ遺跡の地下に何か手がかりがあるかもしれない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curry1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You discovered a mechanical factory in the depths of the ruins and destroyed its chief. Time to report back to Tyche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドーガ遺跡の地下で機械工場を見つけ、工場長を破壊した。ティケに報告しよう。</t>
   </si>
   <si>
     <t xml:space="preserve">nasu</t>
@@ -988,61 +964,19 @@
     <t xml:space="preserve">闇へ</t>
   </si>
   <si>
-    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。</t>
+    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
   </si>
   <si>
     <t xml:space="preserve">into_darkness1</t>
   </si>
   <si>
-    <t xml:space="preserve">|Let's wait for Kettle to return.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|ケトルの帰りを待とう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|It seems that you must throw some kind of liquid into the "Stagnation" at the farthest depth of the Crypt of the Damned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|死者の洞窟の最奥にある「淀み」に、何らかの液体を投げ入れなければならないようだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|Defeat Azrasizzle!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|アズラシズルを倒せ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|Your business in the Crypt of the Damned is done. Time to return to your base and talk to Kettle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|死者の洞窟での用は終わった。拠点でケトルに話しかけよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|Your business in the Crypt of the Damned is done. Time to return to your base and await Issizzle's visit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|死者の洞窟での用は終わった。拠点でイスシズルからの報せを待とう。</t>
+    <t xml:space="preserve">To be continued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次回へ続く。</t>
   </si>
   <si>
     <t xml:space="preserve">negotiation_darkness</t>
@@ -1099,10 +1033,10 @@
     <t xml:space="preserve">negotiation_darkness5</t>
   </si>
   <si>
-    <t xml:space="preserve">|You have finished your business in the Village of Atonement. Let's wait for Kettle to return. (To be continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|贖罪の村での用事を終えた。ケトルの帰りを待とう。（続く）</t>
+    <t xml:space="preserve">|Let's wait for Kettle to come back. (Continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ケトルの帰りを待とう。（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -1923,9 +1857,6 @@
     <t xml:space="preserve">EA 23.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.217</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.184</t>
   </si>
   <si>
@@ -1974,30 +1905,12 @@
     <t xml:space="preserve">Beta 22.86</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.249</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.136</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.198</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.247</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
@@ -2032,9 +1945,6 @@
   </si>
   <si>
     <t xml:space="preserve">米西利亚的复兴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">绝味之谜</t>
   </si>
   <si>
     <t xml:space="preserve">追寻传说之包的秘密！</t>
@@ -2341,12 +2251,6 @@
     <t xml:space="preserve">米西利亚为了自身的存续和复兴正迫切需要更多盟友。新天地如果能继续发展下去，也许会得到米西利亚方的联系。</t>
   </si>
   <si>
-    <t xml:space="preserve">随性的佣兵缇克委托调查「龙与香辛料」的咖喱风味的秘密。或许在多伽遗迹的地下能找到线索。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在多伽遗迹的地下发现了机械工厂，并破坏了工厂长。向缇克报告吧。</t>
-  </si>
-  <si>
     <t xml:space="preserve">带上娜娜苏，探索斯普睿西北边的不归之森吧。</t>
   </si>
   <si>
@@ -2525,22 +2429,10 @@
     <t xml:space="preserve">总觉得有人躲藏在身后。</t>
   </si>
   <si>
-    <t xml:space="preserve">大家能来集合一下吗？|必须考虑应对伊斯西泽尔的办法。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|等待凯特尔归来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|似乎必须向死者的洞窟最深处的「黑潭」中投入某种液体。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|打败安茨拉西祖鲁！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|死者的洞窟任务结束。回到据点和凯特尔谈谈吧。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|死者的洞窟任务结束。回到据点等待伊斯西泽尔的消息吧。</t>
+    <t xml:space="preserve">大家能来集合一下吗？|必须考虑应对伊斯西泽尔的办法。(待续)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待续。</t>
   </si>
   <si>
     <t xml:space="preserve">你有见到凯特尔吗？|从迪米塔斯那里拿到了可以解除结界的手环。去拜访米西利亚东方的流放者之村吧。</t>
@@ -2552,13 +2444,13 @@
     <t xml:space="preserve">|流放者长老比切林委托你将露里耶海底神殿的迪伯妮带回来。</t>
   </si>
   <si>
-    <t xml:space="preserve">|你找到了露里耶海底神殿最深处成长为龙的迪伯妮。这样是很难把它带回去的，不知道有没有什么办法？</t>
+    <t xml:space="preserve">|你找到了露里耶海底神殿最深处成长为龙的迪伯妮。但想不到要怎么把它带回去…</t>
   </si>
   <si>
     <t xml:space="preserve">|完成了比切林的委托。需回到赎罪村向比切林报告。</t>
   </si>
   <si>
-    <t xml:space="preserve">|赎罪村的事已经办完了。接下来等待凯特尔归来吧。(待续)</t>
+    <t xml:space="preserve">|等待凯特尔归来。（待续）</t>
   </si>
   <si>
     <t xml:space="preserve">汝是否略懂些魔法？</t>
@@ -2870,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2882,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2900,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2912,7 +2804,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2930,12 +2822,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2953,10 +2845,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2965,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2983,10 +2875,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2995,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -3013,12 +2905,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -3036,25 +2928,18 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>703</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -3063,15 +2948,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>577</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
       <c r="F10" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -3089,12 +2981,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -3112,10 +3004,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -3124,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -3134,130 +3026,137 @@
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="L12" t="s">
+        <v>779</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>552</v>
+      </c>
+      <c r="C13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" t="s">
-        <v>815</v>
-      </c>
-      <c r="M14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
+      <c r="M14"/>
+      <c r="N14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" t="s">
-        <v>73</v>
-      </c>
+      <c r="M15"/>
+      <c r="N15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C16" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -3266,28 +3165,26 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>711</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -3296,28 +3193,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>574</v>
-      </c>
-      <c r="C18" t="s">
-        <v>620</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>682</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>712</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>88</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -3326,27 +3214,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>574</v>
-      </c>
-      <c r="C19" t="s">
-        <v>621</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>713</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="G19"/>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
+      <c r="H19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3354,19 +3230,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>557</v>
+      </c>
+      <c r="C20" t="s">
+        <v>592</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
       <c r="F20" t="s">
-        <v>714</v>
-      </c>
-      <c r="G20"/>
+        <v>683</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3375,10 +3260,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3391,28 +3276,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
-        <v>580</v>
-      </c>
-      <c r="C22" t="s">
-        <v>622</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>684</v>
+      </c>
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>715</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -3421,15 +3306,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="G23"/>
-      <c r="H23"/>
+      <c r="F23" t="s">
+        <v>685</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="M23"/>
@@ -3440,25 +3332,18 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>574</v>
-      </c>
-      <c r="C24" t="s">
-        <v>623</v>
-      </c>
-      <c r="D24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>686</v>
+      </c>
+      <c r="G24" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>716</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>106</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -3467,22 +3352,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" t="s">
-        <v>717</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="M25"/>
@@ -3490,21 +3368,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>687</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>574</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26" t="s">
-        <v>718</v>
-      </c>
-      <c r="G26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" t="s">
-        <v>112</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3513,10 +3398,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3529,28 +3414,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
         <v>114</v>
       </c>
-      <c r="B28" t="s">
-        <v>581</v>
-      </c>
-      <c r="C28" t="s">
-        <v>624</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>679</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s">
-        <v>719</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" t="s">
-        <v>118</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3559,15 +3444,29 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>581</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+        <v>559</v>
+      </c>
+      <c r="C29" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>679</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3575,25 +3474,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" t="s">
+        <v>597</v>
+      </c>
+      <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
-        <v>581</v>
-      </c>
-      <c r="C30" t="s">
-        <v>625</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>121</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>688</v>
+      </c>
+      <c r="G30" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>711</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -3608,25 +3507,18 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
-      </c>
-      <c r="C31" t="s">
-        <v>626</v>
-      </c>
-      <c r="D31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>689</v>
+      </c>
+      <c r="G31" t="s">
         <v>125</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>711</v>
-      </c>
-      <c r="G31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" t="s">
-        <v>123</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3638,26 +3530,12 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>581</v>
-      </c>
-      <c r="C32" t="s">
-        <v>627</v>
-      </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>720</v>
-      </c>
-      <c r="G32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" t="s">
-        <v>131</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="M32"/>
@@ -3665,21 +3543,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" t="s">
+        <v>598</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>690</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
         <v>132</v>
-      </c>
-      <c r="B33" t="s">
-        <v>581</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" t="s">
-        <v>721</v>
-      </c>
-      <c r="G33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" t="s">
-        <v>134</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -3688,15 +3573,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="G34"/>
-      <c r="H34"/>
+      <c r="F34" t="s">
+        <v>691</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
@@ -3707,25 +3599,18 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>583</v>
-      </c>
-      <c r="C35" t="s">
-        <v>628</v>
-      </c>
-      <c r="D35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>692</v>
+      </c>
+      <c r="G35" t="s">
         <v>137</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>138</v>
-      </c>
-      <c r="F35" t="s">
-        <v>722</v>
-      </c>
-      <c r="G35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" t="s">
-        <v>140</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3734,22 +3619,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" t="s">
-        <v>723</v>
-      </c>
-      <c r="G36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" t="s">
-        <v>143</v>
-      </c>
+      <c r="G36"/>
+      <c r="H36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="M36"/>
@@ -3757,21 +3635,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>552</v>
+      </c>
+      <c r="C37" t="s">
+        <v>599</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>693</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
         <v>144</v>
-      </c>
-      <c r="B37" t="s">
-        <v>581</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>724</v>
-      </c>
-      <c r="G37" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" t="s">
-        <v>146</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3780,15 +3665,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+      <c r="F38" t="s">
+        <v>694</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3799,26 +3691,12 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>574</v>
-      </c>
-      <c r="C39" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" t="s">
-        <v>725</v>
-      </c>
-      <c r="G39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" t="s">
-        <v>152</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="G39"/>
+      <c r="H39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="M39"/>
@@ -3826,21 +3704,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>561</v>
+      </c>
+      <c r="C40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>695</v>
+      </c>
+      <c r="G40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" t="s">
         <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>726</v>
-      </c>
-      <c r="G40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" t="s">
-        <v>155</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3849,10 +3734,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -3865,28 +3750,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>552</v>
+      </c>
+      <c r="C42" t="s">
+        <v>601</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s">
         <v>157</v>
       </c>
-      <c r="B42" t="s">
-        <v>584</v>
-      </c>
-      <c r="C42" t="s">
-        <v>630</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>696</v>
+      </c>
+      <c r="G42" t="s">
         <v>158</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>159</v>
-      </c>
-      <c r="F42" t="s">
-        <v>727</v>
-      </c>
-      <c r="G42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" t="s">
-        <v>161</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -3895,15 +3780,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="G43"/>
-      <c r="H43"/>
+      <c r="F43" t="s">
+        <v>697</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>162</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="M43"/>
@@ -3914,25 +3806,18 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>574</v>
-      </c>
-      <c r="C44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D44" t="s">
+        <v>552</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>698</v>
+      </c>
+      <c r="G44" t="s">
         <v>164</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>165</v>
-      </c>
-      <c r="F44" t="s">
-        <v>728</v>
-      </c>
-      <c r="G44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" t="s">
-        <v>167</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3941,21 +3826,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3964,21 +3849,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3987,21 +3872,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -4010,22 +3895,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" t="s">
-        <v>731</v>
-      </c>
-      <c r="G48" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" t="s">
-        <v>176</v>
-      </c>
+      <c r="G48"/>
+      <c r="H48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="M48"/>
@@ -4033,21 +3911,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>558</v>
+      </c>
+      <c r="C49" t="s">
+        <v>602</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" t="s">
+        <v>701</v>
+      </c>
+      <c r="G49" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" t="s">
         <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>574</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49" t="s">
-        <v>732</v>
-      </c>
-      <c r="G49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" t="s">
-        <v>180</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -4056,15 +3941,29 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>558</v>
+      </c>
+      <c r="C50" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" t="s">
         <v>181</v>
       </c>
-      <c r="B50" t="s">
-        <v>574</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+      <c r="F50" t="s">
+        <v>702</v>
+      </c>
+      <c r="G50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" t="s">
+        <v>183</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -4072,29 +3971,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>581</v>
-      </c>
-      <c r="C51" t="s">
-        <v>632</v>
-      </c>
-      <c r="D51" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" t="s">
-        <v>733</v>
-      </c>
-      <c r="G51" t="s">
-        <v>185</v>
-      </c>
-      <c r="H51" t="s">
-        <v>186</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="G51"/>
+      <c r="H51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -4102,28 +3987,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>562</v>
+      </c>
+      <c r="C52" t="s">
+        <v>604</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
         <v>187</v>
       </c>
-      <c r="B52" t="s">
-        <v>581</v>
-      </c>
-      <c r="C52" t="s">
-        <v>633</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>703</v>
+      </c>
+      <c r="G52" t="s">
         <v>188</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>189</v>
-      </c>
-      <c r="F52" t="s">
-        <v>734</v>
-      </c>
-      <c r="G52" t="s">
-        <v>190</v>
-      </c>
-      <c r="H52" t="s">
-        <v>191</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -4132,10 +4017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4148,28 +4033,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" t="s">
+        <v>605</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="s">
         <v>193</v>
       </c>
-      <c r="B54" t="s">
-        <v>585</v>
-      </c>
-      <c r="C54" t="s">
-        <v>634</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>704</v>
+      </c>
+      <c r="G54" t="s">
         <v>194</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>195</v>
-      </c>
-      <c r="F54" t="s">
-        <v>735</v>
-      </c>
-      <c r="G54" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" t="s">
-        <v>197</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -4178,15 +4063,29 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>562</v>
+      </c>
+      <c r="C55" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
         <v>198</v>
       </c>
-      <c r="B55" t="s">
-        <v>581</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="G55"/>
-      <c r="H55"/>
+      <c r="F55" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" t="s">
+        <v>200</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="M55"/>
@@ -4194,28 +4093,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C56" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -4224,28 +4123,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C57" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -4254,28 +4153,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C58" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4284,28 +4183,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="C59" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4314,28 +4213,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C60" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -4344,28 +4243,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="C61" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -4374,22 +4273,15 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>583</v>
-      </c>
-      <c r="C62" t="s">
-        <v>641</v>
-      </c>
-      <c r="D62" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" t="s">
-        <v>231</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -4407,25 +4299,18 @@
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>583</v>
-      </c>
-      <c r="C63" t="s">
-        <v>642</v>
-      </c>
-      <c r="D63" t="s">
+        <v>560</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>713</v>
+      </c>
+      <c r="G63" t="s">
         <v>235</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>236</v>
-      </c>
-      <c r="F63" t="s">
-        <v>743</v>
-      </c>
-      <c r="G63" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" t="s">
-        <v>238</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -4434,21 +4319,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4457,21 +4342,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4480,21 +4365,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -4503,21 +4388,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4526,21 +4411,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="G68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -4549,21 +4434,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="G69" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
@@ -4572,21 +4457,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="G70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4595,22 +4480,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" t="s">
-        <v>751</v>
-      </c>
       <c r="G71" t="s">
-        <v>261</v>
-      </c>
-      <c r="H71" t="s">
-        <v>262</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="M71"/>
@@ -4618,22 +4498,17 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" t="s">
-        <v>752</v>
-      </c>
       <c r="G72" t="s">
-        <v>264</v>
-      </c>
-      <c r="H72" t="s">
-        <v>265</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="M72"/>
@@ -4641,17 +4516,29 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>583</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73"/>
+        <v>560</v>
+      </c>
+      <c r="C73" t="s">
+        <v>613</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>721</v>
+      </c>
       <c r="G73" t="s">
-        <v>267</v>
-      </c>
-      <c r="H73"/>
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
+        <v>265</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="M73"/>
@@ -4659,17 +4546,29 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" t="s">
+        <v>614</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" t="s">
         <v>268</v>
       </c>
-      <c r="B74" t="s">
-        <v>583</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>722</v>
+      </c>
       <c r="G74" t="s">
-        <v>267</v>
-      </c>
-      <c r="H74"/>
+        <v>269</v>
+      </c>
+      <c r="H74" t="s">
+        <v>270</v>
+      </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="M74"/>
@@ -4677,28 +4576,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C75" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E75" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H75" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4707,28 +4606,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="G76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4737,28 +4636,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="C77" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="G77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4767,28 +4666,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>590</v>
-      </c>
-      <c r="C78" t="s">
-        <v>646</v>
-      </c>
-      <c r="D78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E78" t="s">
-        <v>286</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
       <c r="F78" t="s">
-        <v>756</v>
-      </c>
-      <c r="G78" t="s">
         <v>287</v>
       </c>
+      <c r="G78"/>
       <c r="H78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4797,28 +4687,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>569</v>
+      </c>
+      <c r="C79" t="s">
+        <v>618</v>
+      </c>
+      <c r="D79" t="s">
         <v>289</v>
       </c>
-      <c r="B79" t="s">
-        <v>591</v>
-      </c>
-      <c r="C79" t="s">
-        <v>647</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>290</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>726</v>
+      </c>
+      <c r="G79" t="s">
         <v>291</v>
       </c>
-      <c r="F79" t="s">
-        <v>757</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>292</v>
-      </c>
-      <c r="H79" t="s">
-        <v>293</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4827,19 +4717,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C80" t="s">
+        <v>619</v>
+      </c>
+      <c r="D80" t="s">
         <v>294</v>
       </c>
-      <c r="B80" t="s">
-        <v>574</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80"/>
+      <c r="E80" t="s">
+        <v>295</v>
+      </c>
       <c r="F80" t="s">
-        <v>295</v>
-      </c>
-      <c r="G80"/>
+        <v>727</v>
+      </c>
+      <c r="G80" t="s">
+        <v>296</v>
+      </c>
       <c r="H80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4848,28 +4747,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="C81" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="G81" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H81" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4878,28 +4777,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="C82" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="G82" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -4911,10 +4810,10 @@
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="C83" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -4923,7 +4822,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4941,10 +4840,10 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C84" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -4953,13 +4852,13 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="H84" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4968,22 +4867,15 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>592</v>
-      </c>
-      <c r="C85" t="s">
-        <v>652</v>
-      </c>
-      <c r="D85" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" t="s">
-        <v>316</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
       <c r="F85" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -5001,10 +4893,10 @@
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="C86" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="D86" t="s">
         <v>320</v>
@@ -5013,7 +4905,7 @@
         <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
         <v>322</v>
@@ -5031,12 +4923,12 @@
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
         <v>325</v>
@@ -5054,18 +4946,18 @@
         <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="G88" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -5074,21 +4966,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>594</v>
+        <v>15</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H89" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -5097,21 +4989,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="G90" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H90" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -5120,21 +5012,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H91" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -5143,21 +5035,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>596</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
+        <v>563</v>
+      </c>
+      <c r="C92" t="s">
+        <v>625</v>
+      </c>
+      <c r="D92" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" t="s">
+        <v>341</v>
+      </c>
       <c r="F92" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H92" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -5166,21 +5065,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s">
-        <v>596</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>560</v>
+      </c>
+      <c r="C93" t="s">
+        <v>626</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>346</v>
+      </c>
       <c r="F93" t="s">
-        <v>767</v>
+        <v>722</v>
       </c>
       <c r="G93" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5189,28 +5095,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="C94" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="D94" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E94" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="G94" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="H94" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5219,21 +5125,26 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
-        <v>598</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
+        <v>560</v>
+      </c>
+      <c r="C95" t="s">
+        <v>627</v>
+      </c>
+      <c r="D95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" t="s">
+        <v>350</v>
+      </c>
       <c r="F95" t="s">
-        <v>769</v>
-      </c>
-      <c r="G95" t="s">
-        <v>347</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="G95"/>
       <c r="H95" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5242,21 +5153,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>598</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>628</v>
+      </c>
+      <c r="D96" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" t="s">
+        <v>354</v>
+      </c>
       <c r="F96" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="G96" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="H96" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5265,21 +5183,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>599</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97"/>
+        <v>573</v>
+      </c>
+      <c r="C97" t="s">
+        <v>629</v>
+      </c>
+      <c r="D97" t="s">
+        <v>356</v>
+      </c>
+      <c r="E97" t="s">
+        <v>357</v>
+      </c>
       <c r="F97" t="s">
-        <v>771</v>
+        <v>358</v>
       </c>
       <c r="G97" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H97" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5288,21 +5213,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>598</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
+        <v>573</v>
+      </c>
+      <c r="C98" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
+        <v>361</v>
+      </c>
       <c r="F98" t="s">
-        <v>772</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H98" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5311,21 +5243,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" t="s">
+        <v>573</v>
+      </c>
+      <c r="C99" t="s">
+        <v>631</v>
+      </c>
+      <c r="D99" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" t="s">
         <v>358</v>
       </c>
-      <c r="B99" t="s">
-        <v>600</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99" t="s">
-        <v>773</v>
-      </c>
       <c r="G99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5334,28 +5273,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C100" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
-        <v>774</v>
+        <v>358</v>
       </c>
       <c r="G100" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H100" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5364,28 +5303,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="C101" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="D101" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E101" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F101" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="H101" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5394,28 +5333,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>583</v>
-      </c>
-      <c r="C102" t="s">
-        <v>656</v>
-      </c>
-      <c r="D102" t="s">
-        <v>367</v>
-      </c>
-      <c r="E102" t="s">
-        <v>368</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G102" t="s">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="H102" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5424,26 +5356,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C103" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="D103" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
-        <v>775</v>
-      </c>
-      <c r="G103"/>
+        <v>742</v>
+      </c>
+      <c r="G103" t="s">
+        <v>379</v>
+      </c>
       <c r="H103" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5452,28 +5386,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="C104" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E104" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F104" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G104" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="H104" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5482,28 +5416,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>602</v>
-      </c>
-      <c r="C105" t="s">
-        <v>659</v>
-      </c>
-      <c r="D105" t="s">
-        <v>378</v>
-      </c>
-      <c r="E105" t="s">
-        <v>379</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>380</v>
+        <v>744</v>
       </c>
       <c r="G105" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H105" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5512,28 +5439,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="C106" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D106" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
-        <v>380</v>
+        <v>745</v>
       </c>
       <c r="G106" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H106" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5542,28 +5469,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B107" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="C107" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E107" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F107" t="s">
-        <v>380</v>
+        <v>746</v>
       </c>
       <c r="G107" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H107" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5572,28 +5499,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B108" t="s">
-        <v>602</v>
-      </c>
-      <c r="C108" t="s">
-        <v>662</v>
-      </c>
-      <c r="D108" t="s">
-        <v>388</v>
-      </c>
-      <c r="E108" t="s">
-        <v>389</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
       <c r="F108" t="s">
-        <v>380</v>
+        <v>747</v>
       </c>
       <c r="G108" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H108" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5602,28 +5522,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B109" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="D109" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E109" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="G109" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H109" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5632,21 +5552,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B110" t="s">
         <v>574</v>
       </c>
-      <c r="D110"/>
-      <c r="E110"/>
+      <c r="C110" t="s">
+        <v>639</v>
+      </c>
+      <c r="D110" t="s">
+        <v>408</v>
+      </c>
+      <c r="E110" t="s">
+        <v>409</v>
+      </c>
       <c r="F110" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="G110" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="H110" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5655,28 +5582,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B111" t="s">
-        <v>583</v>
-      </c>
-      <c r="C111" t="s">
-        <v>664</v>
-      </c>
-      <c r="D111" t="s">
-        <v>399</v>
-      </c>
-      <c r="E111" t="s">
-        <v>400</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
       <c r="F111" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="G111" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H111" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5685,28 +5605,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D112" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E112" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="G112" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H112" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5715,21 +5635,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>574</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113"/>
+        <v>560</v>
+      </c>
+      <c r="C113" t="s">
+        <v>641</v>
+      </c>
+      <c r="D113" t="s">
+        <v>421</v>
+      </c>
+      <c r="E113" t="s">
+        <v>422</v>
+      </c>
       <c r="F113" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="G113" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="H113" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5738,28 +5665,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C114" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E114" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="G114" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H114" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5768,28 +5695,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C115" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="D115" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F115" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="G115" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="H115" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5798,21 +5725,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B116" t="s">
-        <v>574</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116"/>
+        <v>560</v>
+      </c>
+      <c r="C116" t="s">
+        <v>644</v>
+      </c>
+      <c r="D116" t="s">
+        <v>436</v>
+      </c>
+      <c r="E116" t="s">
+        <v>437</v>
+      </c>
       <c r="F116" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="G116" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H116" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5821,28 +5755,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C117" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="D117" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="E117" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F117" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="G117" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H117" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5851,28 +5785,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B118" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="C118" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="D118" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="E118" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="G118" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5881,21 +5815,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B119" t="s">
-        <v>604</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119"/>
+        <v>560</v>
+      </c>
+      <c r="C119" t="s">
+        <v>647</v>
+      </c>
+      <c r="D119" t="s">
+        <v>451</v>
+      </c>
+      <c r="E119" t="s">
+        <v>452</v>
+      </c>
       <c r="F119" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="G119" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="H119" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5904,28 +5845,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C120" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="D120" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E120" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="F120" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="G120" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="H120" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5934,28 +5875,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C121" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="F121" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="G121" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="H121" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5964,28 +5905,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="B122" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="C122" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="D122" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="F122" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="G122" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5994,28 +5935,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B123" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="C123" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="D123" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="E123" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="F123" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="G123" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H123" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -6024,28 +5965,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C124" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="D124" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E124" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F124" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="G124" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="H124" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -6054,28 +5995,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="C125" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="D125" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="E125" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F125" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="G125" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="H125" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -6084,28 +6025,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B126" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="C126" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D126" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="E126" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="F126" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="G126" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="H126" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -6114,28 +6055,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="D127" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="E127" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="F127" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="G127" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H127" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6144,28 +6085,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C128" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="D128" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="E128" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="F128" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="G128" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="H128" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6174,28 +6115,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C129" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="F129" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="G129" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="H129" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6204,28 +6145,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="D130" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E130" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="F130" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="G130" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="H130" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6234,28 +6175,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B131" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="C131" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="D131" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E131" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="G131" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H131" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6264,28 +6205,28 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="D132" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="E132" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F132" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="G132" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="H132" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
@@ -6294,28 +6235,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="D133" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E133" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F133" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="G133" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H133" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
@@ -6324,28 +6265,28 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C134" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="D134" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="E134" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F134" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="G134" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="H134" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
@@ -6354,28 +6295,28 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C135" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="D135" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="E135" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="F135" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="G135" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="H135" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
@@ -6384,28 +6325,28 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C136" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="D136" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E136" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="F136" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="G136" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H136" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
@@ -6414,28 +6355,28 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B137" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C137" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="D137" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="E137" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F137" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="G137" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="H137" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
@@ -6444,28 +6385,28 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B138" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C138" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="D138" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E138" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F138" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="G138" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="H138" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
@@ -6474,273 +6415,33 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B139" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C139" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="D139" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="E139" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="F139" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="G139" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="H139" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="M139"/>
       <c r="N139"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>534</v>
-      </c>
-      <c r="B140" t="s">
-        <v>583</v>
-      </c>
-      <c r="C140" t="s">
-        <v>689</v>
-      </c>
-      <c r="D140" t="s">
-        <v>535</v>
-      </c>
-      <c r="E140" t="s">
-        <v>536</v>
-      </c>
-      <c r="F140" t="s">
-        <v>807</v>
-      </c>
-      <c r="G140" t="s">
-        <v>537</v>
-      </c>
-      <c r="H140" t="s">
-        <v>538</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>539</v>
-      </c>
-      <c r="B141" t="s">
-        <v>583</v>
-      </c>
-      <c r="C141" t="s">
-        <v>690</v>
-      </c>
-      <c r="D141" t="s">
-        <v>540</v>
-      </c>
-      <c r="E141" t="s">
-        <v>541</v>
-      </c>
-      <c r="F141" t="s">
-        <v>808</v>
-      </c>
-      <c r="G141" t="s">
-        <v>542</v>
-      </c>
-      <c r="H141" t="s">
-        <v>543</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="M141"/>
-      <c r="N141"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>544</v>
-      </c>
-      <c r="B142" t="s">
-        <v>583</v>
-      </c>
-      <c r="C142" t="s">
-        <v>691</v>
-      </c>
-      <c r="D142" t="s">
-        <v>545</v>
-      </c>
-      <c r="E142" t="s">
-        <v>546</v>
-      </c>
-      <c r="F142" t="s">
-        <v>809</v>
-      </c>
-      <c r="G142" t="s">
-        <v>547</v>
-      </c>
-      <c r="H142" t="s">
-        <v>548</v>
-      </c>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>549</v>
-      </c>
-      <c r="B143" t="s">
-        <v>583</v>
-      </c>
-      <c r="C143" t="s">
-        <v>692</v>
-      </c>
-      <c r="D143" t="s">
-        <v>550</v>
-      </c>
-      <c r="E143" t="s">
-        <v>551</v>
-      </c>
-      <c r="F143" t="s">
-        <v>810</v>
-      </c>
-      <c r="G143" t="s">
-        <v>552</v>
-      </c>
-      <c r="H143" t="s">
-        <v>553</v>
-      </c>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="M143"/>
-      <c r="N143"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>554</v>
-      </c>
-      <c r="B144" t="s">
-        <v>583</v>
-      </c>
-      <c r="C144" t="s">
-        <v>693</v>
-      </c>
-      <c r="D144" t="s">
-        <v>555</v>
-      </c>
-      <c r="E144" t="s">
-        <v>556</v>
-      </c>
-      <c r="F144" t="s">
-        <v>811</v>
-      </c>
-      <c r="G144" t="s">
-        <v>557</v>
-      </c>
-      <c r="H144" t="s">
-        <v>558</v>
-      </c>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>559</v>
-      </c>
-      <c r="B145" t="s">
-        <v>608</v>
-      </c>
-      <c r="C145" t="s">
-        <v>694</v>
-      </c>
-      <c r="D145" t="s">
-        <v>560</v>
-      </c>
-      <c r="E145" t="s">
-        <v>561</v>
-      </c>
-      <c r="F145" t="s">
-        <v>812</v>
-      </c>
-      <c r="G145" t="s">
-        <v>562</v>
-      </c>
-      <c r="H145" t="s">
-        <v>563</v>
-      </c>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="M145"/>
-      <c r="N145"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>564</v>
-      </c>
-      <c r="B146" t="s">
-        <v>609</v>
-      </c>
-      <c r="C146" t="s">
-        <v>695</v>
-      </c>
-      <c r="D146" t="s">
-        <v>565</v>
-      </c>
-      <c r="E146" t="s">
-        <v>566</v>
-      </c>
-      <c r="F146" t="s">
-        <v>813</v>
-      </c>
-      <c r="G146" t="s">
-        <v>567</v>
-      </c>
-      <c r="H146" t="s">
-        <v>568</v>
-      </c>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>569</v>
-      </c>
-      <c r="B147" t="s">
-        <v>610</v>
-      </c>
-      <c r="C147" t="s">
-        <v>696</v>
-      </c>
-      <c r="D147" t="s">
-        <v>570</v>
-      </c>
-      <c r="E147" t="s">
-        <v>571</v>
-      </c>
-      <c r="F147" t="s">
-        <v>814</v>
-      </c>
-      <c r="G147" t="s">
-        <v>572</v>
-      </c>
-      <c r="H147" t="s">
-        <v>573</v>
-      </c>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="M147"/>
-      <c r="N147"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>
